--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_24_29.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_24_29.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>753582.3910980698</v>
+        <v>749058.019195546</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>30165742.53815232</v>
+        <v>30165742.5381523</v>
       </c>
     </row>
     <row r="8">
@@ -1369,10 +1369,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -1381,13 +1381,13 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>347.7744766995506</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>274.8725950469874</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1423,13 +1423,13 @@
         <v>58.78416952972844</v>
       </c>
       <c r="T11" t="n">
-        <v>210.1602450484006</v>
+        <v>209.1218653952653</v>
       </c>
       <c r="U11" t="n">
         <v>255.6149958056585</v>
       </c>
       <c r="V11" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>392.4274362026566</v>
@@ -1463,7 +1463,7 @@
         <v>92.70937201392488</v>
       </c>
       <c r="G12" t="n">
-        <v>92.06745424873364</v>
+        <v>92.06745424873363</v>
       </c>
       <c r="H12" t="n">
         <v>42.74230092603217</v>
@@ -1499,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>61.0861035605177</v>
+        <v>61.08610356051769</v>
       </c>
       <c r="T12" t="n">
         <v>136.2459098068972</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>170.2528374898731</v>
@@ -1536,19 +1536,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G13" t="n">
-        <v>163.7176533411321</v>
+        <v>11.06486987832631</v>
       </c>
       <c r="H13" t="n">
-        <v>134.5632308897331</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>72.40471915577928</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,19 +1575,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>7.146508835688692</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>153.1543937174461</v>
       </c>
       <c r="T13" t="n">
-        <v>73.81131392814405</v>
+        <v>237.1598548985255</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>277.3347814691945</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W13" t="n">
         <v>272.1038797892121</v>
@@ -1615,16 +1615,16 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>398.3411154877793</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>274.8725950469874</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,25 +1657,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>58.78416952972844</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>210.1602450484006</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>255.6149958056585</v>
+        <v>145.6835101239199</v>
       </c>
       <c r="V14" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X14" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>355.8215585042351</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="15">
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1815,10 +1815,10 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>153.1543937174461</v>
       </c>
       <c r="T16" t="n">
-        <v>36.1918152643835</v>
+        <v>237.1598548985255</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -1833,7 +1833,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y16" t="n">
-        <v>224.0793406271554</v>
+        <v>58.22121630051213</v>
       </c>
     </row>
     <row r="17">
@@ -1843,19 +1843,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F17" t="n">
-        <v>355.8215585042356</v>
+        <v>308.551710016496</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>58.78416952972844</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>210.1602450484006</v>
@@ -1903,13 +1903,13 @@
         <v>255.6149958056585</v>
       </c>
       <c r="V17" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>188.264309024945</v>
+        <v>36.60155858787103</v>
       </c>
       <c r="C19" t="n">
         <v>170.2528374898731</v>
@@ -2010,7 +2010,7 @@
         <v>161.683605144497</v>
       </c>
       <c r="E19" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>170.1431564831852</v>
@@ -2049,25 +2049,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>7.146508835688685</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>169.795318345974</v>
+        <v>237.1598548985255</v>
       </c>
       <c r="U19" t="n">
-        <v>277.3347814691945</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W19" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y19" t="n">
         <v>224.0793406271554</v>
@@ -2080,25 +2080,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E20" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>398.3411154877793</v>
+        <v>385.6335618047583</v>
       </c>
       <c r="H20" t="n">
-        <v>183.8649821950567</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>58.78416952972843</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>255.6149958056585</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>353.914520725013</v>
@@ -2149,7 +2149,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="21">
@@ -2241,19 +2241,19 @@
         <v>188.264309024945</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G22" t="n">
-        <v>156.0500459907504</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>7.146508835688685</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>153.1543937174461</v>
@@ -2295,10 +2295,10 @@
         <v>237.1598548985255</v>
       </c>
       <c r="U22" t="n">
-        <v>277.3347814691945</v>
+        <v>214.4835712519524</v>
       </c>
       <c r="V22" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>272.1038797892121</v>
@@ -2323,7 +2323,7 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>58.45383680435406</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>421.717170453621</v>
@@ -2332,10 +2332,10 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G23" t="n">
-        <v>398.3411154877793</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>274.8725950469874</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2368,25 +2368,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>58.78416952972844</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>210.1602450484006</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>255.6149958056585</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>333.5329371567924</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2411,7 +2411,7 @@
         <v>92.70937201392488</v>
       </c>
       <c r="G24" t="n">
-        <v>92.06745424873364</v>
+        <v>92.06745424873363</v>
       </c>
       <c r="H24" t="n">
         <v>42.74230092603217</v>
@@ -2447,7 +2447,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>61.0861035605177</v>
+        <v>61.08610356051769</v>
       </c>
       <c r="T24" t="n">
         <v>136.2459098068972</v>
@@ -2484,10 +2484,10 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>164.546123788675</v>
+        <v>46.87990148053671</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>153.1543937174461</v>
       </c>
       <c r="T25" t="n">
         <v>237.1598548985255</v>
@@ -2535,7 +2535,7 @@
         <v>277.3347814691945</v>
       </c>
       <c r="V25" t="n">
-        <v>260.4463399833888</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W25" t="n">
         <v>272.1038797892121</v>
@@ -2544,7 +2544,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y25" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2566,13 +2566,13 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G26" t="n">
-        <v>398.3411154877793</v>
+        <v>373.8872839870226</v>
       </c>
       <c r="H26" t="n">
-        <v>36.18568626745267</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2614,16 +2614,16 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="27">
@@ -2712,25 +2712,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C28" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>101.6567983700433</v>
+        <v>69.84573290898921</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>163.7176533411321</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>134.5632308897331</v>
       </c>
       <c r="I28" t="n">
         <v>72.40471915577928</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>7.146508835688699</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>153.1543937174461</v>
@@ -2769,7 +2769,7 @@
         <v>237.1598548985255</v>
       </c>
       <c r="U28" t="n">
-        <v>277.3347814691945</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>278.8943527180514</v>
@@ -2800,16 +2800,16 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>335.139677236986</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>398.3411154877793</v>
       </c>
       <c r="H29" t="n">
-        <v>274.8725950469874</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2842,22 +2842,22 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>58.78416952972844</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>255.6149958056585</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>291.0671056528121</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>401.2838973446586</v>
@@ -2958,16 +2958,16 @@
         <v>161.683605144497</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>74.13962760100924</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>134.5632308897331</v>
       </c>
       <c r="I31" t="n">
         <v>72.40471915577928</v>
@@ -3003,10 +3003,10 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>237.1598548985255</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>189.344568222931</v>
+        <v>277.3347814691945</v>
       </c>
       <c r="V31" t="n">
         <v>278.8943527180514</v>
@@ -3018,7 +3018,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y31" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3028,25 +3028,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E32" t="n">
         <v>421.717170453621</v>
       </c>
       <c r="F32" t="n">
-        <v>420.8729399924937</v>
+        <v>370.2961801066072</v>
       </c>
       <c r="G32" t="n">
-        <v>170.5210622388511</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>274.8725950469874</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3088,13 +3088,13 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -3195,16 +3195,16 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F34" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G34" t="n">
-        <v>15.35321265112537</v>
+        <v>118.9355171043602</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>134.5632308897331</v>
       </c>
       <c r="I34" t="n">
         <v>72.40471915577928</v>
@@ -3234,22 +3234,22 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>7.146508835688699</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>153.1543937174461</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>237.1598548985255</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>277.3347814691945</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X34" t="n">
         <v>240.1382575886529</v>
@@ -3268,22 +3268,22 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>148.9948163431274</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G35" t="n">
-        <v>398.3411154877793</v>
+        <v>390.7908269337095</v>
       </c>
       <c r="H35" t="n">
-        <v>274.8725950469874</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3319,19 +3319,19 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>210.1602450484006</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>255.6149958056585</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -3438,10 +3438,10 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>163.7176533411321</v>
       </c>
       <c r="H37" t="n">
-        <v>134.5632308897331</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>7.146508835688692</v>
       </c>
       <c r="S37" t="n">
         <v>153.1543937174461</v>
       </c>
       <c r="T37" t="n">
-        <v>150.1656884362654</v>
+        <v>64.28064673826394</v>
       </c>
       <c r="U37" t="n">
-        <v>277.3347814691945</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X37" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y37" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3508,19 +3508,19 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>255.6666853463993</v>
       </c>
       <c r="E38" t="n">
-        <v>322.4760302400315</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G38" t="n">
-        <v>398.3411154877793</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>274.8725950469874</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3562,16 +3562,16 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X38" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="39">
@@ -3663,7 +3663,7 @@
         <v>188.264309024945</v>
       </c>
       <c r="C40" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3672,13 +3672,13 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>163.7176533411321</v>
       </c>
       <c r="H40" t="n">
-        <v>134.5632308897331</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>7.146508835688699</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>153.1543937174461</v>
       </c>
       <c r="T40" t="n">
-        <v>237.1598548985255</v>
+        <v>236.6387563838322</v>
       </c>
       <c r="U40" t="n">
         <v>277.3347814691945</v>
@@ -3723,10 +3723,10 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W40" t="n">
-        <v>29.61530516469224</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y40" t="n">
         <v>224.0793406271554</v>
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>422.6317226868329</v>
@@ -3751,10 +3751,10 @@
         <v>421.717170453621</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G41" t="n">
-        <v>249.7675404867663</v>
+        <v>376.6764553240187</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3790,19 +3790,19 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>58.78416952972844</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>210.1602450484006</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>255.6149958056585</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -3903,22 +3903,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D43" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>106.5514066254798</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>163.7176533411321</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>134.5632308897331</v>
       </c>
       <c r="I43" t="n">
-        <v>72.40471915577928</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,25 +3948,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>153.1543937174461</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>237.1598548985255</v>
       </c>
       <c r="U43" t="n">
-        <v>277.3347814691945</v>
+        <v>179.0881924363122</v>
       </c>
       <c r="V43" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y43" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3982,16 +3982,16 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E44" t="n">
-        <v>116.3234541008707</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F44" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>398.3411154877793</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>274.8725950469874</v>
@@ -4027,13 +4027,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>58.78416952972844</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>210.1602450484006</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>227.1001272872028</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -4045,7 +4045,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4134,16 +4134,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F46" t="n">
         <v>170.1431564831852</v>
@@ -4182,13 +4182,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>7.146508835688692</v>
       </c>
       <c r="S46" t="n">
         <v>153.1543937174461</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>145.4630117838874</v>
       </c>
       <c r="U46" t="n">
         <v>277.3347814691945</v>
@@ -4197,13 +4197,13 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W46" t="n">
-        <v>168.3466421999865</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X46" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y46" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -5017,28 +5017,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>393.2235638618347</v>
+        <v>1171.610211363616</v>
       </c>
       <c r="C11" t="n">
-        <v>393.2235638618347</v>
+        <v>744.7094813769161</v>
       </c>
       <c r="D11" t="n">
-        <v>393.2235638618347</v>
+        <v>744.7094813769161</v>
       </c>
       <c r="E11" t="n">
-        <v>393.2235638618347</v>
+        <v>744.7094813769161</v>
       </c>
       <c r="F11" t="n">
-        <v>41.93621366026845</v>
+        <v>319.5852995663163</v>
       </c>
       <c r="G11" t="n">
-        <v>41.93621366026845</v>
+        <v>319.5852995663163</v>
       </c>
       <c r="H11" t="n">
-        <v>41.93621366026845</v>
+        <v>41.93621366026846</v>
       </c>
       <c r="I11" t="n">
-        <v>82.33329152904093</v>
+        <v>82.33329152904071</v>
       </c>
       <c r="J11" t="n">
         <v>217.4391490657154</v>
@@ -5050,7 +5050,7 @@
         <v>695.6031008100829</v>
       </c>
       <c r="M11" t="n">
-        <v>998.317104381085</v>
+        <v>998.3171043810846</v>
       </c>
       <c r="N11" t="n">
         <v>1306.679080869173</v>
@@ -5059,34 +5059,34 @@
         <v>1595.689571197983</v>
       </c>
       <c r="P11" t="n">
-        <v>1836.746925560031</v>
+        <v>1836.746925560032</v>
       </c>
       <c r="Q11" t="n">
-        <v>2009.942888284123</v>
+        <v>2009.942888284124</v>
       </c>
       <c r="R11" t="n">
-        <v>2096.810683013422</v>
+        <v>2096.810683013423</v>
       </c>
       <c r="S11" t="n">
         <v>2037.432733993495</v>
       </c>
       <c r="T11" t="n">
-        <v>1825.149658187029</v>
+        <v>1826.19852652353</v>
       </c>
       <c r="U11" t="n">
-        <v>1566.952692726768</v>
+        <v>1568.001561063269</v>
       </c>
       <c r="V11" t="n">
-        <v>1209.463277853018</v>
+        <v>1568.001561063269</v>
       </c>
       <c r="W11" t="n">
-        <v>813.0719281533648</v>
+        <v>1171.610211363616</v>
       </c>
       <c r="X11" t="n">
-        <v>813.0719281533648</v>
+        <v>1171.610211363616</v>
       </c>
       <c r="Y11" t="n">
-        <v>813.0719281533648</v>
+        <v>1171.610211363616</v>
       </c>
     </row>
     <row r="12">
@@ -5114,19 +5114,19 @@
         <v>85.11025499969489</v>
       </c>
       <c r="H12" t="n">
-        <v>41.93621366026845</v>
+        <v>41.93621366026846</v>
       </c>
       <c r="I12" t="n">
-        <v>61.5715062110495</v>
+        <v>85.02881205546134</v>
       </c>
       <c r="J12" t="n">
-        <v>430.2820604998123</v>
+        <v>430.282060499812</v>
       </c>
       <c r="K12" t="n">
-        <v>575.2886204299216</v>
+        <v>575.2886204299214</v>
       </c>
       <c r="L12" t="n">
-        <v>777.7952481146277</v>
+        <v>777.7952481146275</v>
       </c>
       <c r="M12" t="n">
         <v>1017.256422080117</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>926.4086592646906</v>
+        <v>396.9471872475257</v>
       </c>
       <c r="C13" t="n">
-        <v>754.4360961436066</v>
+        <v>224.9746241264417</v>
       </c>
       <c r="D13" t="n">
-        <v>754.4360961436066</v>
+        <v>224.9746241264417</v>
       </c>
       <c r="E13" t="n">
-        <v>588.2278902964601</v>
+        <v>224.9746241264417</v>
       </c>
       <c r="F13" t="n">
-        <v>416.3661160710205</v>
+        <v>53.11284990100211</v>
       </c>
       <c r="G13" t="n">
-        <v>250.9947490597759</v>
+        <v>41.93621366026846</v>
       </c>
       <c r="H13" t="n">
-        <v>115.0722936156011</v>
+        <v>41.93621366026846</v>
       </c>
       <c r="I13" t="n">
-        <v>41.93621366026845</v>
+        <v>41.93621366026846</v>
       </c>
       <c r="J13" t="n">
-        <v>82.8719547399968</v>
+        <v>82.87195473999682</v>
       </c>
       <c r="K13" t="n">
-        <v>162.9603485366405</v>
+        <v>410.2429576506626</v>
       </c>
       <c r="L13" t="n">
-        <v>646.6945048452058</v>
+        <v>517.5882203680628</v>
       </c>
       <c r="M13" t="n">
-        <v>1042.198557405776</v>
+        <v>631.2982199769284</v>
       </c>
       <c r="N13" t="n">
-        <v>1552.514558179885</v>
+        <v>1141.614220751038</v>
       </c>
       <c r="O13" t="n">
-        <v>1652.925277243978</v>
+        <v>1619.727264118334</v>
       </c>
       <c r="P13" t="n">
-        <v>2048.502628155006</v>
+        <v>1897.129130777107</v>
       </c>
       <c r="Q13" t="n">
-        <v>2096.810683013422</v>
+        <v>2096.810683013423</v>
       </c>
       <c r="R13" t="n">
-        <v>2089.591987219797</v>
+        <v>2096.810683013423</v>
       </c>
       <c r="S13" t="n">
-        <v>1934.890579424397</v>
+        <v>1942.109275218023</v>
       </c>
       <c r="T13" t="n">
-        <v>1860.333696668696</v>
+        <v>1702.553866229613</v>
       </c>
       <c r="U13" t="n">
-        <v>1860.333696668696</v>
+        <v>1422.417723331437</v>
       </c>
       <c r="V13" t="n">
-        <v>1860.333696668696</v>
+        <v>1140.706255939466</v>
       </c>
       <c r="W13" t="n">
-        <v>1585.481292841209</v>
+        <v>865.8538521119785</v>
       </c>
       <c r="X13" t="n">
-        <v>1342.917396287014</v>
+        <v>623.2899555577836</v>
       </c>
       <c r="Y13" t="n">
-        <v>1116.574627976756</v>
+        <v>396.9471872475257</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>41.93621366026845</v>
+        <v>1147.927002537428</v>
       </c>
       <c r="C14" t="n">
-        <v>41.93621366026845</v>
+        <v>1147.927002537428</v>
       </c>
       <c r="D14" t="n">
-        <v>41.93621366026845</v>
+        <v>1147.927002537428</v>
       </c>
       <c r="E14" t="n">
-        <v>41.93621366026845</v>
+        <v>721.9500626852854</v>
       </c>
       <c r="F14" t="n">
-        <v>41.93621366026845</v>
+        <v>721.9500626852854</v>
       </c>
       <c r="G14" t="n">
-        <v>41.93621366026845</v>
+        <v>319.5852995663163</v>
       </c>
       <c r="H14" t="n">
-        <v>41.93621366026845</v>
+        <v>41.93621366026846</v>
       </c>
       <c r="I14" t="n">
         <v>82.33329152904093</v>
       </c>
       <c r="J14" t="n">
-        <v>217.4391490657155</v>
+        <v>217.4391490657156</v>
       </c>
       <c r="K14" t="n">
         <v>428.1728161475863</v>
       </c>
       <c r="L14" t="n">
-        <v>695.603100810083</v>
+        <v>695.6031008100831</v>
       </c>
       <c r="M14" t="n">
-        <v>998.3171043810844</v>
+        <v>998.3171043810851</v>
       </c>
       <c r="N14" t="n">
         <v>1306.679080869173</v>
       </c>
       <c r="O14" t="n">
-        <v>1595.689571197982</v>
+        <v>1595.689571197983</v>
       </c>
       <c r="P14" t="n">
-        <v>1836.746925560031</v>
+        <v>1836.746925560032</v>
       </c>
       <c r="Q14" t="n">
-        <v>2009.942888284123</v>
+        <v>2009.942888284124</v>
       </c>
       <c r="R14" t="n">
-        <v>2096.810683013422</v>
+        <v>2096.810683013423</v>
       </c>
       <c r="S14" t="n">
-        <v>2037.432733993495</v>
+        <v>2096.810683013423</v>
       </c>
       <c r="T14" t="n">
-        <v>1825.149658187029</v>
+        <v>2096.810683013423</v>
       </c>
       <c r="U14" t="n">
-        <v>1566.952692726768</v>
+        <v>1949.655622282191</v>
       </c>
       <c r="V14" t="n">
-        <v>1209.463277853018</v>
+        <v>1949.655622282191</v>
       </c>
       <c r="W14" t="n">
-        <v>813.0719281533648</v>
+        <v>1553.264272582538</v>
       </c>
       <c r="X14" t="n">
-        <v>401.351929321112</v>
+        <v>1553.264272582538</v>
       </c>
       <c r="Y14" t="n">
-        <v>41.93621366026845</v>
+        <v>1147.927002537428</v>
       </c>
     </row>
     <row r="15">
@@ -5351,28 +5351,28 @@
         <v>85.11025499969489</v>
       </c>
       <c r="H15" t="n">
-        <v>41.93621366026845</v>
+        <v>41.93621366026846</v>
       </c>
       <c r="I15" t="n">
-        <v>85.02881205546134</v>
+        <v>85.02881205546136</v>
       </c>
       <c r="J15" t="n">
-        <v>162.43903510601</v>
+        <v>324.8265602149061</v>
       </c>
       <c r="K15" t="n">
-        <v>469.8331201450158</v>
+        <v>469.8331201450154</v>
       </c>
       <c r="L15" t="n">
-        <v>672.3397478297219</v>
+        <v>672.3397478297215</v>
       </c>
       <c r="M15" t="n">
-        <v>911.8009217952109</v>
+        <v>911.8009217952106</v>
       </c>
       <c r="N15" t="n">
         <v>1159.941325295414</v>
       </c>
       <c r="O15" t="n">
-        <v>1383.330599615535</v>
+        <v>1383.330599615534</v>
       </c>
       <c r="P15" t="n">
         <v>1559.478563339211</v>
@@ -5427,61 +5427,61 @@
         <v>343.2300361156879</v>
       </c>
       <c r="G16" t="n">
-        <v>177.8586691044433</v>
+        <v>177.8586691044434</v>
       </c>
       <c r="H16" t="n">
-        <v>41.93621366026845</v>
+        <v>41.93621366026846</v>
       </c>
       <c r="I16" t="n">
-        <v>41.93621366026845</v>
+        <v>41.93621366026846</v>
       </c>
       <c r="J16" t="n">
-        <v>160.7936713882177</v>
+        <v>82.87195473999682</v>
       </c>
       <c r="K16" t="n">
-        <v>488.1646742988834</v>
+        <v>410.2429576506626</v>
       </c>
       <c r="L16" t="n">
-        <v>595.5099370162836</v>
+        <v>517.5882203680628</v>
       </c>
       <c r="M16" t="n">
-        <v>1114.470581062106</v>
+        <v>977.2524376758804</v>
       </c>
       <c r="N16" t="n">
-        <v>1226.753658994335</v>
+        <v>1487.56843844999</v>
       </c>
       <c r="O16" t="n">
-        <v>1501.551779866079</v>
+        <v>1965.681481817286</v>
       </c>
       <c r="P16" t="n">
-        <v>1897.129130777107</v>
+        <v>2048.502628155006</v>
       </c>
       <c r="Q16" t="n">
-        <v>2096.810683013422</v>
+        <v>2096.810683013423</v>
       </c>
       <c r="R16" t="n">
-        <v>2096.810683013422</v>
+        <v>2096.810683013423</v>
       </c>
       <c r="S16" t="n">
-        <v>2096.810683013422</v>
+        <v>1942.109275218023</v>
       </c>
       <c r="T16" t="n">
-        <v>2060.25329385748</v>
+        <v>1702.553866229613</v>
       </c>
       <c r="U16" t="n">
-        <v>2060.25329385748</v>
+        <v>1702.553866229613</v>
       </c>
       <c r="V16" t="n">
-        <v>1778.541826465509</v>
+        <v>1420.842398837642</v>
       </c>
       <c r="W16" t="n">
-        <v>1503.689422638022</v>
+        <v>1145.989995010155</v>
       </c>
       <c r="X16" t="n">
-        <v>1261.125526083827</v>
+        <v>903.42609845596</v>
       </c>
       <c r="Y16" t="n">
-        <v>1034.782757773569</v>
+        <v>844.6167890615033</v>
       </c>
     </row>
     <row r="17">
@@ -5491,40 +5491,40 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>401.3519293211124</v>
+        <v>1206.482277455167</v>
       </c>
       <c r="C17" t="n">
-        <v>401.3519293211124</v>
+        <v>779.5815474684675</v>
       </c>
       <c r="D17" t="n">
-        <v>401.3519293211124</v>
+        <v>779.5815474684675</v>
       </c>
       <c r="E17" t="n">
-        <v>401.3519293211124</v>
+        <v>353.6046076163251</v>
       </c>
       <c r="F17" t="n">
-        <v>41.93621366026846</v>
+        <v>41.93621366026848</v>
       </c>
       <c r="G17" t="n">
-        <v>41.93621366026846</v>
+        <v>41.93621366026848</v>
       </c>
       <c r="H17" t="n">
-        <v>41.93621366026846</v>
+        <v>41.93621366026848</v>
       </c>
       <c r="I17" t="n">
         <v>82.33329152904093</v>
       </c>
       <c r="J17" t="n">
-        <v>217.4391490657155</v>
+        <v>217.4391490657156</v>
       </c>
       <c r="K17" t="n">
         <v>428.1728161475863</v>
       </c>
       <c r="L17" t="n">
-        <v>695.603100810083</v>
+        <v>695.6031008100831</v>
       </c>
       <c r="M17" t="n">
-        <v>998.3171043810848</v>
+        <v>998.3171043810851</v>
       </c>
       <c r="N17" t="n">
         <v>1306.679080869173</v>
@@ -5533,34 +5533,34 @@
         <v>1595.689571197983</v>
       </c>
       <c r="P17" t="n">
-        <v>1836.746925560032</v>
+        <v>1836.746925560033</v>
       </c>
       <c r="Q17" t="n">
-        <v>2009.942888284124</v>
+        <v>2009.942888284125</v>
       </c>
       <c r="R17" t="n">
-        <v>2096.810683013423</v>
+        <v>2096.810683013424</v>
       </c>
       <c r="S17" t="n">
-        <v>2037.432733993495</v>
+        <v>2096.810683013424</v>
       </c>
       <c r="T17" t="n">
-        <v>1825.14965818703</v>
+        <v>1884.527607206958</v>
       </c>
       <c r="U17" t="n">
-        <v>1566.952692726769</v>
+        <v>1626.330641746697</v>
       </c>
       <c r="V17" t="n">
-        <v>1209.463277853018</v>
+        <v>1626.330641746697</v>
       </c>
       <c r="W17" t="n">
-        <v>813.0719281533652</v>
+        <v>1626.330641746697</v>
       </c>
       <c r="X17" t="n">
-        <v>401.3519293211124</v>
+        <v>1626.330641746697</v>
       </c>
       <c r="Y17" t="n">
-        <v>401.3519293211124</v>
+        <v>1626.330641746697</v>
       </c>
     </row>
     <row r="18">
@@ -5585,37 +5585,37 @@
         <v>178.1076835337693</v>
       </c>
       <c r="G18" t="n">
-        <v>85.11025499969489</v>
+        <v>85.11025499969492</v>
       </c>
       <c r="H18" t="n">
-        <v>41.93621366026846</v>
+        <v>41.93621366026848</v>
       </c>
       <c r="I18" t="n">
-        <v>85.02881205546134</v>
+        <v>61.57150621104953</v>
       </c>
       <c r="J18" t="n">
-        <v>162.43903510601</v>
+        <v>138.9817292615982</v>
       </c>
       <c r="K18" t="n">
-        <v>307.4455950361194</v>
+        <v>283.9882891917076</v>
       </c>
       <c r="L18" t="n">
-        <v>509.9522227208255</v>
+        <v>486.4949168764138</v>
       </c>
       <c r="M18" t="n">
-        <v>749.4133966863145</v>
+        <v>725.9560908419028</v>
       </c>
       <c r="N18" t="n">
-        <v>997.5538001865175</v>
+        <v>974.0964943421059</v>
       </c>
       <c r="O18" t="n">
-        <v>1220.943074506638</v>
+        <v>1197.485768662227</v>
       </c>
       <c r="P18" t="n">
-        <v>1397.091038230315</v>
+        <v>1373.633732385904</v>
       </c>
       <c r="Q18" t="n">
-        <v>1669.116942812768</v>
+        <v>1774.572443097673</v>
       </c>
       <c r="R18" t="n">
         <v>1815.41703571448</v>
@@ -5649,13 +5649,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>953.802976693745</v>
+        <v>787.5947708465985</v>
       </c>
       <c r="C19" t="n">
-        <v>781.830413572661</v>
+        <v>615.6222077255145</v>
       </c>
       <c r="D19" t="n">
-        <v>618.5136406994317</v>
+        <v>452.3054348522852</v>
       </c>
       <c r="E19" t="n">
         <v>452.3054348522852</v>
@@ -5670,55 +5670,55 @@
         <v>115.0722936156011</v>
       </c>
       <c r="I19" t="n">
-        <v>41.93621366026846</v>
+        <v>41.93621366026848</v>
       </c>
       <c r="J19" t="n">
-        <v>160.7936713882177</v>
+        <v>82.87195473999685</v>
       </c>
       <c r="K19" t="n">
-        <v>488.1646742988834</v>
+        <v>410.2429576506626</v>
       </c>
       <c r="L19" t="n">
-        <v>595.5099370162836</v>
+        <v>893.9771139592279</v>
       </c>
       <c r="M19" t="n">
-        <v>911.1556585665542</v>
+        <v>1354.954761979085</v>
       </c>
       <c r="N19" t="n">
-        <v>1023.438736498783</v>
+        <v>1865.270762753194</v>
       </c>
       <c r="O19" t="n">
-        <v>1501.55177986608</v>
+        <v>1965.681481817287</v>
       </c>
       <c r="P19" t="n">
-        <v>1897.129130777107</v>
+        <v>2048.502628155007</v>
       </c>
       <c r="Q19" t="n">
-        <v>2096.810683013423</v>
+        <v>2096.810683013424</v>
       </c>
       <c r="R19" t="n">
-        <v>2096.810683013423</v>
+        <v>2089.591987219799</v>
       </c>
       <c r="S19" t="n">
-        <v>2096.810683013423</v>
+        <v>2089.591987219799</v>
       </c>
       <c r="T19" t="n">
-        <v>1925.300260441732</v>
+        <v>1850.036578231389</v>
       </c>
       <c r="U19" t="n">
-        <v>1645.164117543556</v>
+        <v>1850.036578231389</v>
       </c>
       <c r="V19" t="n">
-        <v>1645.164117543556</v>
+        <v>1568.325110839418</v>
       </c>
       <c r="W19" t="n">
-        <v>1370.311713716069</v>
+        <v>1293.472707011931</v>
       </c>
       <c r="X19" t="n">
-        <v>1370.311713716069</v>
+        <v>1050.908810457736</v>
       </c>
       <c r="Y19" t="n">
-        <v>1143.968945405811</v>
+        <v>824.5660421474784</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1481.124302679411</v>
+        <v>854.7576847831049</v>
       </c>
       <c r="C20" t="n">
-        <v>1481.124302679411</v>
+        <v>854.7576847831049</v>
       </c>
       <c r="D20" t="n">
-        <v>1481.124302679411</v>
+        <v>431.4650639681051</v>
       </c>
       <c r="E20" t="n">
-        <v>1055.147362827268</v>
+        <v>431.4650639681051</v>
       </c>
       <c r="F20" t="n">
-        <v>630.0231810166686</v>
+        <v>431.4650639681051</v>
       </c>
       <c r="G20" t="n">
-        <v>227.6584178976995</v>
+        <v>41.93621366026846</v>
       </c>
       <c r="H20" t="n">
-        <v>41.93621366026845</v>
+        <v>41.93621366026846</v>
       </c>
       <c r="I20" t="n">
-        <v>82.33329152904071</v>
+        <v>82.33329152904088</v>
       </c>
       <c r="J20" t="n">
-        <v>217.4391490657153</v>
+        <v>217.4391490657155</v>
       </c>
       <c r="K20" t="n">
-        <v>428.1728161475861</v>
+        <v>428.1728161475862</v>
       </c>
       <c r="L20" t="n">
-        <v>695.6031008100829</v>
+        <v>695.603100810083</v>
       </c>
       <c r="M20" t="n">
-        <v>998.3171043810844</v>
+        <v>998.3171043810848</v>
       </c>
       <c r="N20" t="n">
         <v>1306.679080869173</v>
       </c>
       <c r="O20" t="n">
-        <v>1595.689571197982</v>
+        <v>1595.689571197983</v>
       </c>
       <c r="P20" t="n">
-        <v>1836.746925560031</v>
+        <v>1836.746925560032</v>
       </c>
       <c r="Q20" t="n">
-        <v>2009.942888284123</v>
+        <v>2009.942888284124</v>
       </c>
       <c r="R20" t="n">
-        <v>2096.810683013422</v>
+        <v>2096.810683013423</v>
       </c>
       <c r="S20" t="n">
-        <v>2096.810683013422</v>
+        <v>2037.432733993495</v>
       </c>
       <c r="T20" t="n">
-        <v>2096.810683013422</v>
+        <v>2037.432733993495</v>
       </c>
       <c r="U20" t="n">
-        <v>1838.613717553161</v>
+        <v>2037.432733993495</v>
       </c>
       <c r="V20" t="n">
-        <v>1481.124302679411</v>
+        <v>1679.943319119745</v>
       </c>
       <c r="W20" t="n">
-        <v>1481.124302679411</v>
+        <v>1679.943319119745</v>
       </c>
       <c r="X20" t="n">
-        <v>1481.124302679411</v>
+        <v>1679.943319119745</v>
       </c>
       <c r="Y20" t="n">
-        <v>1481.124302679411</v>
+        <v>1274.606049074635</v>
       </c>
     </row>
     <row r="21">
@@ -5825,34 +5825,34 @@
         <v>85.11025499969489</v>
       </c>
       <c r="H21" t="n">
-        <v>41.93621366026845</v>
+        <v>41.93621366026846</v>
       </c>
       <c r="I21" t="n">
-        <v>85.02881205546134</v>
+        <v>61.57150621104951</v>
       </c>
       <c r="J21" t="n">
-        <v>162.43903510601</v>
+        <v>138.9817292615982</v>
       </c>
       <c r="K21" t="n">
-        <v>307.4455950361194</v>
+        <v>575.288620429921</v>
       </c>
       <c r="L21" t="n">
-        <v>509.9522227208255</v>
+        <v>777.7952481146272</v>
       </c>
       <c r="M21" t="n">
-        <v>749.4133966863145</v>
+        <v>1017.256422080116</v>
       </c>
       <c r="N21" t="n">
-        <v>997.5538001865175</v>
+        <v>1265.396825580319</v>
       </c>
       <c r="O21" t="n">
-        <v>1383.330599615535</v>
+        <v>1488.78609990044</v>
       </c>
       <c r="P21" t="n">
-        <v>1559.478563339211</v>
+        <v>1664.934063624117</v>
       </c>
       <c r="Q21" t="n">
-        <v>1669.116942812768</v>
+        <v>1774.572443097673</v>
       </c>
       <c r="R21" t="n">
         <v>1815.41703571448</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>199.5625227418345</v>
+        <v>551.9787568539385</v>
       </c>
       <c r="C22" t="n">
-        <v>199.5625227418345</v>
+        <v>380.0061937328545</v>
       </c>
       <c r="D22" t="n">
-        <v>199.5625227418345</v>
+        <v>380.0061937328545</v>
       </c>
       <c r="E22" t="n">
-        <v>199.5625227418345</v>
+        <v>213.797987885708</v>
       </c>
       <c r="F22" t="n">
-        <v>199.5625227418345</v>
+        <v>41.93621366026846</v>
       </c>
       <c r="G22" t="n">
-        <v>41.93621366026845</v>
+        <v>41.93621366026846</v>
       </c>
       <c r="H22" t="n">
-        <v>41.93621366026845</v>
+        <v>41.93621366026846</v>
       </c>
       <c r="I22" t="n">
-        <v>41.93621366026845</v>
+        <v>41.93621366026846</v>
       </c>
       <c r="J22" t="n">
         <v>160.7936713882177</v>
       </c>
       <c r="K22" t="n">
-        <v>240.8820651848613</v>
+        <v>488.1646742988835</v>
       </c>
       <c r="L22" t="n">
-        <v>348.2273279022617</v>
+        <v>684.6206205553628</v>
       </c>
       <c r="M22" t="n">
-        <v>867.1879719480837</v>
+        <v>1203.581264601185</v>
       </c>
       <c r="N22" t="n">
-        <v>1377.503972722193</v>
+        <v>1713.897265375294</v>
       </c>
       <c r="O22" t="n">
-        <v>1855.617016089489</v>
+        <v>1814.307984439387</v>
       </c>
       <c r="P22" t="n">
-        <v>1938.438162427209</v>
+        <v>1897.129130777107</v>
       </c>
       <c r="Q22" t="n">
-        <v>2096.810683013422</v>
+        <v>2096.810683013423</v>
       </c>
       <c r="R22" t="n">
-        <v>2089.591987219797</v>
+        <v>2096.810683013423</v>
       </c>
       <c r="S22" t="n">
-        <v>1934.890579424397</v>
+        <v>1942.109275218023</v>
       </c>
       <c r="T22" t="n">
-        <v>1695.335170435987</v>
+        <v>1702.553866229613</v>
       </c>
       <c r="U22" t="n">
-        <v>1415.199027537811</v>
+        <v>1485.903794257944</v>
       </c>
       <c r="V22" t="n">
-        <v>1133.48756014584</v>
+        <v>1485.903794257944</v>
       </c>
       <c r="W22" t="n">
-        <v>858.635156318353</v>
+        <v>1211.051390430457</v>
       </c>
       <c r="X22" t="n">
-        <v>616.0712597641581</v>
+        <v>968.4874938762621</v>
       </c>
       <c r="Y22" t="n">
-        <v>389.7284914539001</v>
+        <v>742.1447255660041</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1632.095463948385</v>
+        <v>893.0373353230107</v>
       </c>
       <c r="C23" t="n">
-        <v>1632.095463948385</v>
+        <v>893.0373353230107</v>
       </c>
       <c r="D23" t="n">
-        <v>1573.051184348028</v>
+        <v>893.0373353230107</v>
       </c>
       <c r="E23" t="n">
-        <v>1147.074244495885</v>
+        <v>467.0603954708682</v>
       </c>
       <c r="F23" t="n">
-        <v>721.9500626852854</v>
+        <v>41.93621366026846</v>
       </c>
       <c r="G23" t="n">
-        <v>319.5852995663163</v>
+        <v>41.93621366026846</v>
       </c>
       <c r="H23" t="n">
-        <v>41.93621366026845</v>
+        <v>41.93621366026846</v>
       </c>
       <c r="I23" t="n">
-        <v>82.33329152904071</v>
+        <v>82.33329152904093</v>
       </c>
       <c r="J23" t="n">
-        <v>217.4391490657154</v>
+        <v>217.4391490657155</v>
       </c>
       <c r="K23" t="n">
-        <v>428.1728161475862</v>
+        <v>428.1728161475863</v>
       </c>
       <c r="L23" t="n">
-        <v>695.6031008100828</v>
+        <v>695.603100810083</v>
       </c>
       <c r="M23" t="n">
-        <v>998.3171043810845</v>
+        <v>998.3171043810848</v>
       </c>
       <c r="N23" t="n">
         <v>1306.679080869173</v>
       </c>
       <c r="O23" t="n">
-        <v>1595.689571197982</v>
+        <v>1595.689571197983</v>
       </c>
       <c r="P23" t="n">
-        <v>1836.746925560031</v>
+        <v>1836.746925560032</v>
       </c>
       <c r="Q23" t="n">
-        <v>2009.942888284123</v>
+        <v>2009.942888284124</v>
       </c>
       <c r="R23" t="n">
-        <v>2096.810683013422</v>
+        <v>2096.810683013423</v>
       </c>
       <c r="S23" t="n">
-        <v>2037.432733993495</v>
+        <v>2096.810683013423</v>
       </c>
       <c r="T23" t="n">
-        <v>2037.432733993495</v>
+        <v>1884.527607206958</v>
       </c>
       <c r="U23" t="n">
-        <v>2037.432733993495</v>
+        <v>1626.330641746697</v>
       </c>
       <c r="V23" t="n">
-        <v>2037.432733993495</v>
+        <v>1289.428685022664</v>
       </c>
       <c r="W23" t="n">
-        <v>2037.432733993495</v>
+        <v>893.0373353230107</v>
       </c>
       <c r="X23" t="n">
-        <v>2037.432733993495</v>
+        <v>893.0373353230107</v>
       </c>
       <c r="Y23" t="n">
-        <v>1632.095463948385</v>
+        <v>893.0373353230107</v>
       </c>
     </row>
     <row r="24">
@@ -6062,13 +6062,13 @@
         <v>85.11025499969489</v>
       </c>
       <c r="H24" t="n">
-        <v>41.93621366026845</v>
+        <v>41.93621366026846</v>
       </c>
       <c r="I24" t="n">
-        <v>61.5715062110495</v>
+        <v>85.02881205546134</v>
       </c>
       <c r="J24" t="n">
-        <v>324.8265602149065</v>
+        <v>324.8265602149064</v>
       </c>
       <c r="K24" t="n">
         <v>469.8331201450158</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>380.1169826284989</v>
+        <v>433.123986845718</v>
       </c>
       <c r="C25" t="n">
-        <v>208.1444195074149</v>
+        <v>261.151423724634</v>
       </c>
       <c r="D25" t="n">
-        <v>208.1444195074149</v>
+        <v>261.151423724634</v>
       </c>
       <c r="E25" t="n">
-        <v>41.93621366026845</v>
+        <v>213.797987885708</v>
       </c>
       <c r="F25" t="n">
-        <v>41.93621366026845</v>
+        <v>41.93621366026846</v>
       </c>
       <c r="G25" t="n">
-        <v>41.93621366026845</v>
+        <v>41.93621366026846</v>
       </c>
       <c r="H25" t="n">
-        <v>41.93621366026845</v>
+        <v>41.93621366026846</v>
       </c>
       <c r="I25" t="n">
-        <v>41.93621366026845</v>
+        <v>41.93621366026846</v>
       </c>
       <c r="J25" t="n">
-        <v>82.8719547399968</v>
+        <v>160.7936713882177</v>
       </c>
       <c r="K25" t="n">
-        <v>162.9603485366405</v>
+        <v>240.8820651848613</v>
       </c>
       <c r="L25" t="n">
-        <v>646.6945048452058</v>
+        <v>348.2273279022617</v>
       </c>
       <c r="M25" t="n">
-        <v>760.4045044540713</v>
+        <v>867.1879719480838</v>
       </c>
       <c r="N25" t="n">
-        <v>1270.720505228181</v>
+        <v>1377.503972722193</v>
       </c>
       <c r="O25" t="n">
-        <v>1748.833548595477</v>
+        <v>1501.55177986608</v>
       </c>
       <c r="P25" t="n">
-        <v>2048.502628155006</v>
+        <v>1897.129130777107</v>
       </c>
       <c r="Q25" t="n">
-        <v>2096.810683013422</v>
+        <v>2096.810683013423</v>
       </c>
       <c r="R25" t="n">
-        <v>2096.810683013422</v>
+        <v>2096.810683013423</v>
       </c>
       <c r="S25" t="n">
-        <v>2096.810683013422</v>
+        <v>1942.109275218023</v>
       </c>
       <c r="T25" t="n">
-        <v>1857.255274025013</v>
+        <v>1702.553866229613</v>
       </c>
       <c r="U25" t="n">
-        <v>1577.119131126836</v>
+        <v>1422.417723331437</v>
       </c>
       <c r="V25" t="n">
-        <v>1314.042020032504</v>
+        <v>1140.706255939466</v>
       </c>
       <c r="W25" t="n">
-        <v>1039.189616205017</v>
+        <v>865.8538521119785</v>
       </c>
       <c r="X25" t="n">
-        <v>796.6257196508225</v>
+        <v>623.2899555577836</v>
       </c>
       <c r="Y25" t="n">
-        <v>570.2829513405645</v>
+        <v>623.2899555577836</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>907.7529050158896</v>
+        <v>1271.625048676783</v>
       </c>
       <c r="C26" t="n">
-        <v>480.8521750291897</v>
+        <v>844.724318690083</v>
       </c>
       <c r="D26" t="n">
-        <v>480.8521750291897</v>
+        <v>844.724318690083</v>
       </c>
       <c r="E26" t="n">
-        <v>480.8521750291897</v>
+        <v>844.724318690083</v>
       </c>
       <c r="F26" t="n">
-        <v>480.8521750291897</v>
+        <v>419.6001368794832</v>
       </c>
       <c r="G26" t="n">
-        <v>78.48741191022066</v>
+        <v>41.93621366026845</v>
       </c>
       <c r="H26" t="n">
-        <v>41.93621366026846</v>
+        <v>41.93621366026845</v>
       </c>
       <c r="I26" t="n">
-        <v>82.33329152904116</v>
+        <v>82.33329152904071</v>
       </c>
       <c r="J26" t="n">
-        <v>217.439149065716</v>
+        <v>217.4391490657151</v>
       </c>
       <c r="K26" t="n">
-        <v>428.1728161475867</v>
+        <v>428.172816147586</v>
       </c>
       <c r="L26" t="n">
-        <v>695.6031008100832</v>
+        <v>695.6031008100827</v>
       </c>
       <c r="M26" t="n">
-        <v>998.3171043810851</v>
+        <v>998.3171043810847</v>
       </c>
       <c r="N26" t="n">
         <v>1306.679080869173</v>
       </c>
       <c r="O26" t="n">
-        <v>1595.689571197983</v>
+        <v>1595.689571197982</v>
       </c>
       <c r="P26" t="n">
-        <v>1836.746925560032</v>
+        <v>1836.746925560031</v>
       </c>
       <c r="Q26" t="n">
-        <v>2009.942888284124</v>
+        <v>2009.942888284123</v>
       </c>
       <c r="R26" t="n">
-        <v>2096.810683013423</v>
+        <v>2096.810683013422</v>
       </c>
       <c r="S26" t="n">
-        <v>2096.810683013423</v>
+        <v>2096.810683013422</v>
       </c>
       <c r="T26" t="n">
-        <v>2096.810683013423</v>
+        <v>2096.810683013422</v>
       </c>
       <c r="U26" t="n">
-        <v>2096.810683013423</v>
+        <v>2096.810683013422</v>
       </c>
       <c r="V26" t="n">
-        <v>1739.321268139672</v>
+        <v>2096.810683013422</v>
       </c>
       <c r="W26" t="n">
-        <v>1739.321268139672</v>
+        <v>2096.810683013422</v>
       </c>
       <c r="X26" t="n">
-        <v>1327.60126930742</v>
+        <v>2096.810683013422</v>
       </c>
       <c r="Y26" t="n">
-        <v>1327.60126930742</v>
+        <v>1691.473412968313</v>
       </c>
     </row>
     <row r="27">
@@ -6299,31 +6299,31 @@
         <v>85.11025499969489</v>
       </c>
       <c r="H27" t="n">
-        <v>41.93621366026846</v>
+        <v>41.93621366026845</v>
       </c>
       <c r="I27" t="n">
         <v>85.02881205546134</v>
       </c>
       <c r="J27" t="n">
-        <v>162.43903510601</v>
+        <v>324.8265602149065</v>
       </c>
       <c r="K27" t="n">
-        <v>307.4455950361193</v>
+        <v>469.8331201450158</v>
       </c>
       <c r="L27" t="n">
-        <v>509.9522227208254</v>
+        <v>672.3397478297219</v>
       </c>
       <c r="M27" t="n">
-        <v>749.4133966863143</v>
+        <v>911.8009217952109</v>
       </c>
       <c r="N27" t="n">
-        <v>997.5538001865173</v>
+        <v>1159.941325295414</v>
       </c>
       <c r="O27" t="n">
-        <v>1220.943074506638</v>
+        <v>1383.330599615535</v>
       </c>
       <c r="P27" t="n">
-        <v>1397.091038230315</v>
+        <v>1559.478563339211</v>
       </c>
       <c r="Q27" t="n">
         <v>1669.116942812768</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>389.7284914539006</v>
+        <v>486.9173614336359</v>
       </c>
       <c r="C28" t="n">
-        <v>217.7559283328166</v>
+        <v>486.9173614336359</v>
       </c>
       <c r="D28" t="n">
-        <v>217.7559283328166</v>
+        <v>486.9173614336359</v>
       </c>
       <c r="E28" t="n">
-        <v>115.0722936156011</v>
+        <v>416.3661160710205</v>
       </c>
       <c r="F28" t="n">
-        <v>115.0722936156011</v>
+        <v>416.3661160710205</v>
       </c>
       <c r="G28" t="n">
-        <v>115.0722936156011</v>
+        <v>250.9947490597759</v>
       </c>
       <c r="H28" t="n">
         <v>115.0722936156011</v>
       </c>
       <c r="I28" t="n">
-        <v>41.93621366026846</v>
+        <v>41.93621366026845</v>
       </c>
       <c r="J28" t="n">
-        <v>82.87195473999681</v>
+        <v>82.8719547399968</v>
       </c>
       <c r="K28" t="n">
-        <v>410.2429576506625</v>
+        <v>162.9603485366405</v>
       </c>
       <c r="L28" t="n">
-        <v>893.9771139592277</v>
+        <v>646.6945048452058</v>
       </c>
       <c r="M28" t="n">
-        <v>1007.687113568093</v>
+        <v>977.2524376758802</v>
       </c>
       <c r="N28" t="n">
-        <v>1119.970191500322</v>
+        <v>1487.56843844999</v>
       </c>
       <c r="O28" t="n">
-        <v>1501.55177986608</v>
+        <v>1965.681481817286</v>
       </c>
       <c r="P28" t="n">
-        <v>1897.129130777107</v>
+        <v>2048.502628155006</v>
       </c>
       <c r="Q28" t="n">
-        <v>2096.810683013423</v>
+        <v>2096.810683013422</v>
       </c>
       <c r="R28" t="n">
-        <v>2089.591987219798</v>
+        <v>2096.810683013422</v>
       </c>
       <c r="S28" t="n">
-        <v>1934.890579424398</v>
+        <v>1942.109275218022</v>
       </c>
       <c r="T28" t="n">
-        <v>1695.335170435988</v>
+        <v>1702.553866229613</v>
       </c>
       <c r="U28" t="n">
-        <v>1415.199027537812</v>
+        <v>1702.553866229613</v>
       </c>
       <c r="V28" t="n">
-        <v>1133.48756014584</v>
+        <v>1420.842398837641</v>
       </c>
       <c r="W28" t="n">
-        <v>858.6351563183534</v>
+        <v>1145.989995010154</v>
       </c>
       <c r="X28" t="n">
-        <v>616.0712597641585</v>
+        <v>903.4260984559595</v>
       </c>
       <c r="Y28" t="n">
-        <v>389.7284914539006</v>
+        <v>677.0833301457016</v>
       </c>
     </row>
     <row r="29">
@@ -6439,46 +6439,46 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>742.877920381316</v>
+        <v>1632.095463948386</v>
       </c>
       <c r="C29" t="n">
-        <v>742.877920381316</v>
+        <v>1632.095463948386</v>
       </c>
       <c r="D29" t="n">
-        <v>319.5852995663163</v>
+        <v>1208.802843133386</v>
       </c>
       <c r="E29" t="n">
-        <v>319.5852995663163</v>
+        <v>782.8259032812435</v>
       </c>
       <c r="F29" t="n">
-        <v>319.5852995663163</v>
+        <v>444.3009767792375</v>
       </c>
       <c r="G29" t="n">
-        <v>319.5852995663163</v>
+        <v>41.93621366026846</v>
       </c>
       <c r="H29" t="n">
         <v>41.93621366026846</v>
       </c>
       <c r="I29" t="n">
-        <v>82.33329152904071</v>
+        <v>82.33329152904105</v>
       </c>
       <c r="J29" t="n">
-        <v>217.4391490657154</v>
+        <v>217.4391490657156</v>
       </c>
       <c r="K29" t="n">
-        <v>428.1728161475862</v>
+        <v>428.1728161475864</v>
       </c>
       <c r="L29" t="n">
-        <v>695.6031008100829</v>
+        <v>695.603100810083</v>
       </c>
       <c r="M29" t="n">
-        <v>998.3171043810846</v>
+        <v>998.317104381085</v>
       </c>
       <c r="N29" t="n">
         <v>1306.679080869173</v>
       </c>
       <c r="O29" t="n">
-        <v>1595.689571197982</v>
+        <v>1595.689571197983</v>
       </c>
       <c r="P29" t="n">
         <v>1836.746925560032</v>
@@ -6490,25 +6490,25 @@
         <v>2096.810683013423</v>
       </c>
       <c r="S29" t="n">
-        <v>2096.810683013423</v>
+        <v>2037.432733993495</v>
       </c>
       <c r="T29" t="n">
-        <v>2096.810683013423</v>
+        <v>2037.432733993495</v>
       </c>
       <c r="U29" t="n">
-        <v>1838.613717553162</v>
+        <v>2037.432733993495</v>
       </c>
       <c r="V29" t="n">
-        <v>1838.613717553162</v>
+        <v>2037.432733993495</v>
       </c>
       <c r="W29" t="n">
-        <v>1442.222367853509</v>
+        <v>2037.432733993495</v>
       </c>
       <c r="X29" t="n">
-        <v>1148.215190426426</v>
+        <v>2037.432733993495</v>
       </c>
       <c r="Y29" t="n">
-        <v>742.877920381316</v>
+        <v>1632.095463948386</v>
       </c>
     </row>
     <row r="30">
@@ -6542,28 +6542,28 @@
         <v>61.5715062110495</v>
       </c>
       <c r="J30" t="n">
-        <v>324.8265602149066</v>
+        <v>430.2820604998123</v>
       </c>
       <c r="K30" t="n">
-        <v>469.8331201450159</v>
+        <v>575.2886204299216</v>
       </c>
       <c r="L30" t="n">
-        <v>672.339747829722</v>
+        <v>777.7952481146277</v>
       </c>
       <c r="M30" t="n">
-        <v>911.8009217952109</v>
+        <v>1017.256422080117</v>
       </c>
       <c r="N30" t="n">
-        <v>1159.941325295414</v>
+        <v>1265.39682558032</v>
       </c>
       <c r="O30" t="n">
-        <v>1383.330599615535</v>
+        <v>1488.78609990044</v>
       </c>
       <c r="P30" t="n">
-        <v>1559.478563339211</v>
+        <v>1664.934063624117</v>
       </c>
       <c r="Q30" t="n">
-        <v>1669.116942812768</v>
+        <v>1774.572443097673</v>
       </c>
       <c r="R30" t="n">
         <v>1815.41703571448</v>
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>450.3616296099144</v>
+        <v>827.3808036295279</v>
       </c>
       <c r="C31" t="n">
-        <v>278.3890664888304</v>
+        <v>655.4082405084439</v>
       </c>
       <c r="D31" t="n">
-        <v>115.0722936156011</v>
+        <v>492.0914676352146</v>
       </c>
       <c r="E31" t="n">
-        <v>115.0722936156011</v>
+        <v>325.8832617880681</v>
       </c>
       <c r="F31" t="n">
-        <v>115.0722936156011</v>
+        <v>325.8832617880681</v>
       </c>
       <c r="G31" t="n">
-        <v>115.0722936156011</v>
+        <v>250.994749059776</v>
       </c>
       <c r="H31" t="n">
         <v>115.0722936156011</v>
@@ -6621,25 +6621,25 @@
         <v>41.93621366026846</v>
       </c>
       <c r="J31" t="n">
-        <v>160.7936713882177</v>
+        <v>82.87195473999681</v>
       </c>
       <c r="K31" t="n">
-        <v>488.1646742988834</v>
+        <v>162.9603485366405</v>
       </c>
       <c r="L31" t="n">
-        <v>595.5099370162836</v>
+        <v>458.2917936300585</v>
       </c>
       <c r="M31" t="n">
-        <v>1114.470581062106</v>
+        <v>977.2524376758806</v>
       </c>
       <c r="N31" t="n">
-        <v>1624.786581836215</v>
+        <v>1487.56843844999</v>
       </c>
       <c r="O31" t="n">
-        <v>1725.197300900308</v>
+        <v>1965.681481817286</v>
       </c>
       <c r="P31" t="n">
-        <v>1897.129130777107</v>
+        <v>2048.502628155006</v>
       </c>
       <c r="Q31" t="n">
         <v>2096.810683013423</v>
@@ -6651,22 +6651,22 @@
         <v>2096.810683013423</v>
       </c>
       <c r="T31" t="n">
-        <v>1857.255274025013</v>
+        <v>2096.810683013423</v>
       </c>
       <c r="U31" t="n">
-        <v>1665.998134405891</v>
+        <v>1816.674540115247</v>
       </c>
       <c r="V31" t="n">
-        <v>1384.28666701392</v>
+        <v>1534.963072723275</v>
       </c>
       <c r="W31" t="n">
-        <v>1109.434263186433</v>
+        <v>1260.110668895788</v>
       </c>
       <c r="X31" t="n">
-        <v>866.8703666322381</v>
+        <v>1017.546772341594</v>
       </c>
       <c r="Y31" t="n">
-        <v>640.5275983219801</v>
+        <v>1017.546772341594</v>
       </c>
     </row>
     <row r="32">
@@ -6676,28 +6676,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1342.929918440019</v>
+        <v>1265.24231988964</v>
       </c>
       <c r="C32" t="n">
-        <v>1342.929918440019</v>
+        <v>1265.24231988964</v>
       </c>
       <c r="D32" t="n">
-        <v>1342.929918440019</v>
+        <v>841.9496990746404</v>
       </c>
       <c r="E32" t="n">
-        <v>916.9529785878768</v>
+        <v>415.972759222498</v>
       </c>
       <c r="F32" t="n">
-        <v>491.828796777277</v>
+        <v>41.93621366026846</v>
       </c>
       <c r="G32" t="n">
-        <v>319.5852995663163</v>
+        <v>41.93621366026846</v>
       </c>
       <c r="H32" t="n">
         <v>41.93621366026846</v>
       </c>
       <c r="I32" t="n">
-        <v>82.33329152904071</v>
+        <v>82.33329152904093</v>
       </c>
       <c r="J32" t="n">
         <v>217.4391490657154</v>
@@ -6709,13 +6709,13 @@
         <v>695.6031008100829</v>
       </c>
       <c r="M32" t="n">
-        <v>998.3171043810846</v>
+        <v>998.317104381085</v>
       </c>
       <c r="N32" t="n">
         <v>1306.679080869173</v>
       </c>
       <c r="O32" t="n">
-        <v>1595.689571197982</v>
+        <v>1595.689571197983</v>
       </c>
       <c r="P32" t="n">
         <v>1836.746925560032</v>
@@ -6736,16 +6736,16 @@
         <v>2096.810683013423</v>
       </c>
       <c r="V32" t="n">
-        <v>1739.321268139672</v>
+        <v>2096.810683013423</v>
       </c>
       <c r="W32" t="n">
-        <v>1342.929918440019</v>
+        <v>2096.810683013423</v>
       </c>
       <c r="X32" t="n">
-        <v>1342.929918440019</v>
+        <v>1685.09068418117</v>
       </c>
       <c r="Y32" t="n">
-        <v>1342.929918440019</v>
+        <v>1685.09068418117</v>
       </c>
     </row>
     <row r="33">
@@ -6776,16 +6776,16 @@
         <v>41.93621366026846</v>
       </c>
       <c r="I33" t="n">
-        <v>61.5715062110495</v>
+        <v>85.02881205546134</v>
       </c>
       <c r="J33" t="n">
-        <v>324.8265602149066</v>
+        <v>324.8265602149065</v>
       </c>
       <c r="K33" t="n">
-        <v>469.8331201450159</v>
+        <v>469.8331201450158</v>
       </c>
       <c r="L33" t="n">
-        <v>672.339747829722</v>
+        <v>672.3397478297219</v>
       </c>
       <c r="M33" t="n">
         <v>911.8009217952109</v>
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>474.4149265693219</v>
+        <v>881.1741782174463</v>
       </c>
       <c r="C34" t="n">
-        <v>302.442363448238</v>
+        <v>709.2016150963623</v>
       </c>
       <c r="D34" t="n">
-        <v>302.442363448238</v>
+        <v>709.2016150963623</v>
       </c>
       <c r="E34" t="n">
-        <v>302.442363448238</v>
+        <v>542.9934092492158</v>
       </c>
       <c r="F34" t="n">
-        <v>130.5805892227984</v>
+        <v>371.1316350237762</v>
       </c>
       <c r="G34" t="n">
-        <v>115.0722936156011</v>
+        <v>250.994749059776</v>
       </c>
       <c r="H34" t="n">
         <v>115.0722936156011</v>
@@ -6858,52 +6858,52 @@
         <v>41.93621366026846</v>
       </c>
       <c r="J34" t="n">
-        <v>160.7936713882177</v>
+        <v>82.87195473999681</v>
       </c>
       <c r="K34" t="n">
-        <v>488.1646742988834</v>
+        <v>162.9603485366405</v>
       </c>
       <c r="L34" t="n">
-        <v>595.5099370162836</v>
+        <v>646.6945048452058</v>
       </c>
       <c r="M34" t="n">
-        <v>709.2199366251491</v>
+        <v>1165.655148891028</v>
       </c>
       <c r="N34" t="n">
-        <v>1219.535937399259</v>
+        <v>1675.971149665137</v>
       </c>
       <c r="O34" t="n">
-        <v>1697.648980766555</v>
+        <v>1965.681481817286</v>
       </c>
       <c r="P34" t="n">
-        <v>1897.129130777107</v>
+        <v>2048.502628155006</v>
       </c>
       <c r="Q34" t="n">
         <v>2096.810683013423</v>
       </c>
       <c r="R34" t="n">
-        <v>2089.591987219798</v>
+        <v>2096.810683013423</v>
       </c>
       <c r="S34" t="n">
-        <v>1934.890579424398</v>
+        <v>2096.810683013423</v>
       </c>
       <c r="T34" t="n">
-        <v>1695.335170435988</v>
+        <v>2096.810683013423</v>
       </c>
       <c r="U34" t="n">
-        <v>1415.199027537812</v>
+        <v>2096.810683013423</v>
       </c>
       <c r="V34" t="n">
-        <v>1133.48756014584</v>
+        <v>1815.099215621452</v>
       </c>
       <c r="W34" t="n">
-        <v>1133.48756014584</v>
+        <v>1540.246811793965</v>
       </c>
       <c r="X34" t="n">
-        <v>890.9236635916455</v>
+        <v>1297.68291523977</v>
       </c>
       <c r="Y34" t="n">
-        <v>664.5808952813876</v>
+        <v>1071.340146929512</v>
       </c>
     </row>
     <row r="35">
@@ -6913,40 +6913,40 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>872.4498771732929</v>
+        <v>1288.699334481517</v>
       </c>
       <c r="C35" t="n">
-        <v>872.4498771732929</v>
+        <v>861.7986044948173</v>
       </c>
       <c r="D35" t="n">
-        <v>872.4498771732929</v>
+        <v>861.7986044948173</v>
       </c>
       <c r="E35" t="n">
-        <v>721.9500626852854</v>
+        <v>861.7986044948173</v>
       </c>
       <c r="F35" t="n">
-        <v>721.9500626852854</v>
+        <v>436.6744226842175</v>
       </c>
       <c r="G35" t="n">
-        <v>319.5852995663163</v>
+        <v>41.93621366026846</v>
       </c>
       <c r="H35" t="n">
         <v>41.93621366026846</v>
       </c>
       <c r="I35" t="n">
-        <v>82.33329152904082</v>
+        <v>82.33329152904093</v>
       </c>
       <c r="J35" t="n">
         <v>217.4391490657154</v>
       </c>
       <c r="K35" t="n">
-        <v>428.1728161475861</v>
+        <v>428.1728161475862</v>
       </c>
       <c r="L35" t="n">
-        <v>695.6031008100828</v>
+        <v>695.6031008100829</v>
       </c>
       <c r="M35" t="n">
-        <v>998.3171043810846</v>
+        <v>998.317104381085</v>
       </c>
       <c r="N35" t="n">
         <v>1306.679080869173</v>
@@ -6967,22 +6967,22 @@
         <v>2096.810683013423</v>
       </c>
       <c r="T35" t="n">
-        <v>1884.527607206958</v>
+        <v>2096.810683013423</v>
       </c>
       <c r="U35" t="n">
-        <v>1626.330641746697</v>
+        <v>2096.810683013423</v>
       </c>
       <c r="V35" t="n">
-        <v>1268.841226872946</v>
+        <v>2096.810683013423</v>
       </c>
       <c r="W35" t="n">
-        <v>872.4498771732929</v>
+        <v>1700.41933331377</v>
       </c>
       <c r="X35" t="n">
-        <v>872.4498771732929</v>
+        <v>1288.699334481517</v>
       </c>
       <c r="Y35" t="n">
-        <v>872.4498771732929</v>
+        <v>1288.699334481517</v>
       </c>
     </row>
     <row r="36">
@@ -7013,28 +7013,28 @@
         <v>41.93621366026846</v>
       </c>
       <c r="I36" t="n">
-        <v>61.5715062110495</v>
+        <v>85.02881205546134</v>
       </c>
       <c r="J36" t="n">
-        <v>324.8265602149066</v>
+        <v>162.43903510601</v>
       </c>
       <c r="K36" t="n">
-        <v>469.8331201450159</v>
+        <v>307.4455950361193</v>
       </c>
       <c r="L36" t="n">
-        <v>672.339747829722</v>
+        <v>509.9522227208254</v>
       </c>
       <c r="M36" t="n">
-        <v>911.8009217952109</v>
+        <v>749.4133966863144</v>
       </c>
       <c r="N36" t="n">
-        <v>1159.941325295414</v>
+        <v>997.5538001865174</v>
       </c>
       <c r="O36" t="n">
-        <v>1383.330599615535</v>
+        <v>1220.943074506638</v>
       </c>
       <c r="P36" t="n">
-        <v>1559.478563339211</v>
+        <v>1397.091038230315</v>
       </c>
       <c r="Q36" t="n">
         <v>1669.116942812768</v>
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>851.2179851713427</v>
+        <v>880.6668967384124</v>
       </c>
       <c r="C37" t="n">
-        <v>679.2454220502586</v>
+        <v>708.6943336173284</v>
       </c>
       <c r="D37" t="n">
-        <v>515.9286491770293</v>
+        <v>545.3775607440991</v>
       </c>
       <c r="E37" t="n">
-        <v>349.7204433298829</v>
+        <v>379.1693548969527</v>
       </c>
       <c r="F37" t="n">
-        <v>177.8586691044434</v>
+        <v>207.3075806715131</v>
       </c>
       <c r="G37" t="n">
-        <v>177.8586691044434</v>
+        <v>41.93621366026846</v>
       </c>
       <c r="H37" t="n">
         <v>41.93621366026846</v>
@@ -7095,13 +7095,13 @@
         <v>41.93621366026846</v>
       </c>
       <c r="J37" t="n">
-        <v>160.7936713882177</v>
+        <v>82.87195473999681</v>
       </c>
       <c r="K37" t="n">
-        <v>488.1646742988834</v>
+        <v>410.2429576506625</v>
       </c>
       <c r="L37" t="n">
-        <v>769.8973388239353</v>
+        <v>893.9771139592278</v>
       </c>
       <c r="M37" t="n">
         <v>1288.857982869758</v>
@@ -7119,28 +7119,28 @@
         <v>2096.810683013423</v>
       </c>
       <c r="R37" t="n">
-        <v>2096.810683013423</v>
+        <v>2089.591987219798</v>
       </c>
       <c r="S37" t="n">
-        <v>1942.109275218023</v>
+        <v>1934.890579424398</v>
       </c>
       <c r="T37" t="n">
-        <v>1790.426761646037</v>
+        <v>1869.960633224131</v>
       </c>
       <c r="U37" t="n">
-        <v>1510.290618747861</v>
+        <v>1869.960633224131</v>
       </c>
       <c r="V37" t="n">
-        <v>1510.290618747861</v>
+        <v>1588.24916583216</v>
       </c>
       <c r="W37" t="n">
-        <v>1510.290618747861</v>
+        <v>1313.396762004673</v>
       </c>
       <c r="X37" t="n">
-        <v>1267.726722193666</v>
+        <v>1070.832865450478</v>
       </c>
       <c r="Y37" t="n">
-        <v>1041.383953883408</v>
+        <v>1070.832865450478</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1472.807608374705</v>
+        <v>725.3095725884433</v>
       </c>
       <c r="C38" t="n">
-        <v>1472.807608374705</v>
+        <v>725.3095725884433</v>
       </c>
       <c r="D38" t="n">
-        <v>1472.807608374705</v>
+        <v>467.0603954708682</v>
       </c>
       <c r="E38" t="n">
-        <v>1147.074244495885</v>
+        <v>467.0603954708682</v>
       </c>
       <c r="F38" t="n">
-        <v>721.9500626852854</v>
+        <v>41.93621366026844</v>
       </c>
       <c r="G38" t="n">
-        <v>319.5852995663163</v>
+        <v>41.93621366026844</v>
       </c>
       <c r="H38" t="n">
-        <v>41.93621366026846</v>
+        <v>41.93621366026844</v>
       </c>
       <c r="I38" t="n">
-        <v>82.33329152904088</v>
+        <v>82.33329152904085</v>
       </c>
       <c r="J38" t="n">
         <v>217.4391490657154</v>
       </c>
       <c r="K38" t="n">
-        <v>428.1728161475864</v>
+        <v>428.1728161475858</v>
       </c>
       <c r="L38" t="n">
-        <v>695.603100810083</v>
+        <v>695.6031008100827</v>
       </c>
       <c r="M38" t="n">
-        <v>998.3171043810848</v>
+        <v>998.3171043810843</v>
       </c>
       <c r="N38" t="n">
-        <v>1306.679080869173</v>
+        <v>1306.679080869172</v>
       </c>
       <c r="O38" t="n">
         <v>1595.689571197982</v>
       </c>
       <c r="P38" t="n">
-        <v>1836.746925560032</v>
+        <v>1836.746925560031</v>
       </c>
       <c r="Q38" t="n">
-        <v>2009.942888284124</v>
+        <v>2009.942888284123</v>
       </c>
       <c r="R38" t="n">
-        <v>2096.810683013423</v>
+        <v>2096.810683013422</v>
       </c>
       <c r="S38" t="n">
-        <v>2096.810683013423</v>
+        <v>2096.810683013422</v>
       </c>
       <c r="T38" t="n">
-        <v>1884.527607206958</v>
+        <v>1884.527607206957</v>
       </c>
       <c r="U38" t="n">
-        <v>1884.527607206958</v>
+        <v>1884.527607206957</v>
       </c>
       <c r="V38" t="n">
-        <v>1884.527607206958</v>
+        <v>1527.038192333206</v>
       </c>
       <c r="W38" t="n">
-        <v>1884.527607206958</v>
+        <v>1130.646842633553</v>
       </c>
       <c r="X38" t="n">
-        <v>1472.807608374705</v>
+        <v>1130.646842633553</v>
       </c>
       <c r="Y38" t="n">
-        <v>1472.807608374705</v>
+        <v>725.3095725884433</v>
       </c>
     </row>
     <row r="39">
@@ -7247,31 +7247,31 @@
         <v>85.11025499969489</v>
       </c>
       <c r="H39" t="n">
-        <v>41.93621366026846</v>
+        <v>41.93621366026844</v>
       </c>
       <c r="I39" t="n">
-        <v>61.5715062110495</v>
+        <v>85.02881205546133</v>
       </c>
       <c r="J39" t="n">
-        <v>324.8265602149066</v>
+        <v>162.43903510601</v>
       </c>
       <c r="K39" t="n">
-        <v>469.8331201450159</v>
+        <v>307.4455950361193</v>
       </c>
       <c r="L39" t="n">
-        <v>672.339747829722</v>
+        <v>509.9522227208254</v>
       </c>
       <c r="M39" t="n">
-        <v>911.8009217952109</v>
+        <v>749.4133966863144</v>
       </c>
       <c r="N39" t="n">
-        <v>1159.941325295414</v>
+        <v>997.5538001865174</v>
       </c>
       <c r="O39" t="n">
-        <v>1383.330599615535</v>
+        <v>1220.943074506638</v>
       </c>
       <c r="P39" t="n">
-        <v>1559.478563339211</v>
+        <v>1397.091038230315</v>
       </c>
       <c r="Q39" t="n">
         <v>1669.116942812768</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>687.0643734622115</v>
+        <v>207.307580671513</v>
       </c>
       <c r="C40" t="n">
-        <v>515.0918103411275</v>
+        <v>207.307580671513</v>
       </c>
       <c r="D40" t="n">
-        <v>515.0918103411275</v>
+        <v>207.307580671513</v>
       </c>
       <c r="E40" t="n">
-        <v>515.0918103411275</v>
+        <v>207.307580671513</v>
       </c>
       <c r="F40" t="n">
-        <v>343.2300361156879</v>
+        <v>207.307580671513</v>
       </c>
       <c r="G40" t="n">
-        <v>177.8586691044434</v>
+        <v>41.93621366026844</v>
       </c>
       <c r="H40" t="n">
-        <v>41.93621366026846</v>
+        <v>41.93621366026844</v>
       </c>
       <c r="I40" t="n">
-        <v>41.93621366026846</v>
+        <v>41.93621366026844</v>
       </c>
       <c r="J40" t="n">
-        <v>82.87195473999681</v>
+        <v>160.7936713882177</v>
       </c>
       <c r="K40" t="n">
-        <v>410.2429576506625</v>
+        <v>488.1646742988834</v>
       </c>
       <c r="L40" t="n">
-        <v>777.1150604190118</v>
+        <v>971.8988306074486</v>
       </c>
       <c r="M40" t="n">
-        <v>890.8250600278773</v>
+        <v>1490.859474653271</v>
       </c>
       <c r="N40" t="n">
-        <v>1401.141060801987</v>
+        <v>1603.1425525855</v>
       </c>
       <c r="O40" t="n">
-        <v>1501.55177986608</v>
+        <v>1965.681481817285</v>
       </c>
       <c r="P40" t="n">
-        <v>1897.129130777107</v>
+        <v>2048.502628155005</v>
       </c>
       <c r="Q40" t="n">
-        <v>2096.810683013423</v>
+        <v>2096.810683013422</v>
       </c>
       <c r="R40" t="n">
-        <v>2089.591987219798</v>
+        <v>2096.810683013422</v>
       </c>
       <c r="S40" t="n">
-        <v>1934.890579424398</v>
+        <v>1942.109275218022</v>
       </c>
       <c r="T40" t="n">
-        <v>1695.335170435988</v>
+        <v>1703.080228365666</v>
       </c>
       <c r="U40" t="n">
-        <v>1415.199027537812</v>
+        <v>1422.94408546749</v>
       </c>
       <c r="V40" t="n">
-        <v>1133.48756014584</v>
+        <v>1141.232618075519</v>
       </c>
       <c r="W40" t="n">
-        <v>1103.573110484535</v>
+        <v>866.3802142480315</v>
       </c>
       <c r="X40" t="n">
-        <v>1103.573110484535</v>
+        <v>623.8163176938366</v>
       </c>
       <c r="Y40" t="n">
-        <v>877.2303421742772</v>
+        <v>397.4735493835786</v>
       </c>
     </row>
     <row r="41">
@@ -7387,43 +7387,43 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1147.104328435238</v>
+        <v>1700.41933331377</v>
       </c>
       <c r="C41" t="n">
-        <v>720.2035984485385</v>
+        <v>1273.51860332707</v>
       </c>
       <c r="D41" t="n">
-        <v>720.2035984485385</v>
+        <v>1273.51860332707</v>
       </c>
       <c r="E41" t="n">
-        <v>294.2266585963961</v>
+        <v>847.5416634749275</v>
       </c>
       <c r="F41" t="n">
-        <v>294.2266585963961</v>
+        <v>422.4174816643277</v>
       </c>
       <c r="G41" t="n">
-        <v>41.93621366026845</v>
+        <v>41.93621366026846</v>
       </c>
       <c r="H41" t="n">
-        <v>41.93621366026845</v>
+        <v>41.93621366026846</v>
       </c>
       <c r="I41" t="n">
-        <v>82.33329152904071</v>
+        <v>82.33329152904091</v>
       </c>
       <c r="J41" t="n">
-        <v>217.4391490657149</v>
+        <v>217.4391490657154</v>
       </c>
       <c r="K41" t="n">
-        <v>428.1728161475858</v>
+        <v>428.1728161475862</v>
       </c>
       <c r="L41" t="n">
-        <v>695.6031008100823</v>
+        <v>695.6031008100829</v>
       </c>
       <c r="M41" t="n">
-        <v>998.3171043810841</v>
+        <v>998.3171043810846</v>
       </c>
       <c r="N41" t="n">
-        <v>1306.679080869172</v>
+        <v>1306.679080869173</v>
       </c>
       <c r="O41" t="n">
         <v>1595.689571197982</v>
@@ -7435,28 +7435,28 @@
         <v>2009.942888284123</v>
       </c>
       <c r="R41" t="n">
-        <v>2096.810683013422</v>
+        <v>2096.810683013423</v>
       </c>
       <c r="S41" t="n">
-        <v>2037.432733993495</v>
+        <v>2096.810683013423</v>
       </c>
       <c r="T41" t="n">
-        <v>1825.149658187029</v>
+        <v>2096.810683013423</v>
       </c>
       <c r="U41" t="n">
-        <v>1566.952692726768</v>
+        <v>2096.810683013423</v>
       </c>
       <c r="V41" t="n">
-        <v>1566.952692726768</v>
+        <v>2096.810683013423</v>
       </c>
       <c r="W41" t="n">
-        <v>1566.952692726768</v>
+        <v>1700.41933331377</v>
       </c>
       <c r="X41" t="n">
-        <v>1566.952692726768</v>
+        <v>1700.41933331377</v>
       </c>
       <c r="Y41" t="n">
-        <v>1566.952692726768</v>
+        <v>1700.41933331377</v>
       </c>
     </row>
     <row r="42">
@@ -7484,7 +7484,7 @@
         <v>85.11025499969489</v>
       </c>
       <c r="H42" t="n">
-        <v>41.93621366026845</v>
+        <v>41.93621366026846</v>
       </c>
       <c r="I42" t="n">
         <v>85.02881205546134</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>724.1975189171415</v>
+        <v>687.0643734622115</v>
       </c>
       <c r="C43" t="n">
-        <v>552.2249557960574</v>
+        <v>515.0918103411275</v>
       </c>
       <c r="D43" t="n">
-        <v>388.9081829228281</v>
+        <v>515.0918103411275</v>
       </c>
       <c r="E43" t="n">
-        <v>222.6999770756817</v>
+        <v>515.0918103411275</v>
       </c>
       <c r="F43" t="n">
-        <v>115.0722936156011</v>
+        <v>343.2300361156879</v>
       </c>
       <c r="G43" t="n">
-        <v>115.0722936156011</v>
+        <v>177.8586691044434</v>
       </c>
       <c r="H43" t="n">
-        <v>115.0722936156011</v>
+        <v>41.93621366026846</v>
       </c>
       <c r="I43" t="n">
-        <v>41.93621366026845</v>
+        <v>41.93621366026846</v>
       </c>
       <c r="J43" t="n">
-        <v>160.7936713882177</v>
+        <v>82.87195473999681</v>
       </c>
       <c r="K43" t="n">
-        <v>488.1646742988834</v>
+        <v>162.9603485366405</v>
       </c>
       <c r="L43" t="n">
-        <v>595.5099370162836</v>
+        <v>458.2917936300585</v>
       </c>
       <c r="M43" t="n">
-        <v>1114.470581062106</v>
+        <v>977.2524376758806</v>
       </c>
       <c r="N43" t="n">
-        <v>1226.753658994335</v>
+        <v>1487.56843844999</v>
       </c>
       <c r="O43" t="n">
-        <v>1501.551779866079</v>
+        <v>1965.681481817286</v>
       </c>
       <c r="P43" t="n">
-        <v>1897.129130777107</v>
+        <v>2048.502628155006</v>
       </c>
       <c r="Q43" t="n">
-        <v>2096.810683013422</v>
+        <v>2096.810683013423</v>
       </c>
       <c r="R43" t="n">
-        <v>2096.810683013422</v>
+        <v>2096.810683013423</v>
       </c>
       <c r="S43" t="n">
-        <v>1942.109275218022</v>
+        <v>2096.810683013423</v>
       </c>
       <c r="T43" t="n">
-        <v>1702.553866229613</v>
+        <v>1857.255274025013</v>
       </c>
       <c r="U43" t="n">
-        <v>1422.417723331436</v>
+        <v>1676.35810994793</v>
       </c>
       <c r="V43" t="n">
-        <v>1140.706255939465</v>
+        <v>1394.646642555959</v>
       </c>
       <c r="W43" t="n">
-        <v>1140.706255939465</v>
+        <v>1119.794238728472</v>
       </c>
       <c r="X43" t="n">
-        <v>1140.706255939465</v>
+        <v>877.2303421742772</v>
       </c>
       <c r="Y43" t="n">
-        <v>914.3634876292072</v>
+        <v>877.2303421742772</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1691.473412968313</v>
+        <v>1595.755590220158</v>
       </c>
       <c r="C44" t="n">
-        <v>1264.572682981613</v>
+        <v>1168.854860233459</v>
       </c>
       <c r="D44" t="n">
-        <v>1264.572682981613</v>
+        <v>745.5622394184588</v>
       </c>
       <c r="E44" t="n">
-        <v>1147.074244495885</v>
+        <v>319.5852995663163</v>
       </c>
       <c r="F44" t="n">
-        <v>721.9500626852854</v>
+        <v>319.5852995663163</v>
       </c>
       <c r="G44" t="n">
         <v>319.5852995663163</v>
       </c>
       <c r="H44" t="n">
-        <v>41.93621366026845</v>
+        <v>41.93621366026846</v>
       </c>
       <c r="I44" t="n">
-        <v>82.33329152904091</v>
+        <v>82.33329152904105</v>
       </c>
       <c r="J44" t="n">
-        <v>217.4391490657154</v>
+        <v>217.4391490657156</v>
       </c>
       <c r="K44" t="n">
-        <v>428.1728161475862</v>
+        <v>428.1728161475864</v>
       </c>
       <c r="L44" t="n">
-        <v>695.6031008100829</v>
+        <v>695.603100810083</v>
       </c>
       <c r="M44" t="n">
-        <v>998.3171043810846</v>
+        <v>998.3171043810847</v>
       </c>
       <c r="N44" t="n">
         <v>1306.679080869173</v>
       </c>
       <c r="O44" t="n">
-        <v>1595.689571197982</v>
+        <v>1595.689571197983</v>
       </c>
       <c r="P44" t="n">
-        <v>1836.746925560031</v>
+        <v>1836.746925560032</v>
       </c>
       <c r="Q44" t="n">
-        <v>2009.942888284123</v>
+        <v>2009.942888284124</v>
       </c>
       <c r="R44" t="n">
-        <v>2096.810683013422</v>
+        <v>2096.810683013423</v>
       </c>
       <c r="S44" t="n">
-        <v>2096.810683013422</v>
+        <v>2037.432733993495</v>
       </c>
       <c r="T44" t="n">
-        <v>2096.810683013422</v>
+        <v>1825.14965818703</v>
       </c>
       <c r="U44" t="n">
-        <v>2096.810683013422</v>
+        <v>1595.755590220158</v>
       </c>
       <c r="V44" t="n">
-        <v>2096.810683013422</v>
+        <v>1595.755590220158</v>
       </c>
       <c r="W44" t="n">
-        <v>2096.810683013422</v>
+        <v>1595.755590220158</v>
       </c>
       <c r="X44" t="n">
-        <v>2096.810683013422</v>
+        <v>1595.755590220158</v>
       </c>
       <c r="Y44" t="n">
-        <v>1691.473412968313</v>
+        <v>1595.755590220158</v>
       </c>
     </row>
     <row r="45">
@@ -7721,31 +7721,31 @@
         <v>85.11025499969489</v>
       </c>
       <c r="H45" t="n">
-        <v>41.93621366026845</v>
+        <v>41.93621366026846</v>
       </c>
       <c r="I45" t="n">
         <v>61.5715062110495</v>
       </c>
       <c r="J45" t="n">
-        <v>430.2820604998123</v>
+        <v>138.9817292615982</v>
       </c>
       <c r="K45" t="n">
-        <v>575.2886204299216</v>
+        <v>283.9882891917075</v>
       </c>
       <c r="L45" t="n">
-        <v>777.7952481146277</v>
+        <v>486.4949168764136</v>
       </c>
       <c r="M45" t="n">
-        <v>1017.256422080117</v>
+        <v>725.9560908419026</v>
       </c>
       <c r="N45" t="n">
-        <v>1265.39682558032</v>
+        <v>974.0964943421055</v>
       </c>
       <c r="O45" t="n">
-        <v>1488.78609990044</v>
+        <v>1197.485768662226</v>
       </c>
       <c r="P45" t="n">
-        <v>1664.934063624117</v>
+        <v>1373.633732385903</v>
       </c>
       <c r="Q45" t="n">
         <v>1774.572443097673</v>
@@ -7782,13 +7782,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>551.1419180180367</v>
+        <v>708.6943336173284</v>
       </c>
       <c r="C46" t="n">
-        <v>379.1693548969527</v>
+        <v>708.6943336173284</v>
       </c>
       <c r="D46" t="n">
-        <v>379.1693548969527</v>
+        <v>545.3775607440991</v>
       </c>
       <c r="E46" t="n">
         <v>379.1693548969527</v>
@@ -7797,61 +7797,61 @@
         <v>207.3075806715131</v>
       </c>
       <c r="G46" t="n">
-        <v>41.93621366026845</v>
+        <v>41.93621366026846</v>
       </c>
       <c r="H46" t="n">
-        <v>41.93621366026845</v>
+        <v>41.93621366026846</v>
       </c>
       <c r="I46" t="n">
-        <v>41.93621366026845</v>
+        <v>41.93621366026846</v>
       </c>
       <c r="J46" t="n">
-        <v>82.8719547399968</v>
+        <v>82.87195473999681</v>
       </c>
       <c r="K46" t="n">
-        <v>410.2429576506625</v>
+        <v>162.9603485366405</v>
       </c>
       <c r="L46" t="n">
-        <v>893.9771139592278</v>
+        <v>458.2917936300585</v>
       </c>
       <c r="M46" t="n">
-        <v>1007.687113568093</v>
+        <v>977.2524376758806</v>
       </c>
       <c r="N46" t="n">
-        <v>1119.970191500323</v>
+        <v>1487.56843844999</v>
       </c>
       <c r="O46" t="n">
-        <v>1598.083234867619</v>
+        <v>1965.681481817286</v>
       </c>
       <c r="P46" t="n">
-        <v>1993.660585778647</v>
+        <v>2048.502628155006</v>
       </c>
       <c r="Q46" t="n">
-        <v>2096.810683013422</v>
+        <v>2096.810683013423</v>
       </c>
       <c r="R46" t="n">
-        <v>2096.810683013422</v>
+        <v>2089.591987219798</v>
       </c>
       <c r="S46" t="n">
-        <v>1942.109275218022</v>
+        <v>1934.890579424398</v>
       </c>
       <c r="T46" t="n">
-        <v>1942.109275218022</v>
+        <v>1787.958244289158</v>
       </c>
       <c r="U46" t="n">
-        <v>1661.973132319846</v>
+        <v>1507.822101390982</v>
       </c>
       <c r="V46" t="n">
-        <v>1380.261664927875</v>
+        <v>1226.11063399901</v>
       </c>
       <c r="W46" t="n">
-        <v>1210.214551594555</v>
+        <v>951.2582301715233</v>
       </c>
       <c r="X46" t="n">
-        <v>967.6506550403603</v>
+        <v>708.6943336173284</v>
       </c>
       <c r="Y46" t="n">
-        <v>741.3078867301024</v>
+        <v>708.6943336173284</v>
       </c>
     </row>
   </sheetData>
@@ -8765,10 +8765,10 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J12" t="n">
-        <v>294.242758826479</v>
+        <v>270.5485104987899</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -8850,25 +8850,25 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L13" t="n">
-        <v>380.1908016072373</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>284.6404575269742</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
         <v>402.0534574160406</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>381.5174992961649</v>
       </c>
       <c r="P13" t="n">
-        <v>315.9153581548562</v>
+        <v>196.5461821424778</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -9005,10 +9005,10 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>164.027803140299</v>
       </c>
       <c r="K15" t="n">
-        <v>164.0278031402994</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9084,7 +9084,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>78.70880469517259</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>249.7804132464869</v>
@@ -9093,19 +9093,19 @@
         <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>409.3440852898551</v>
+        <v>349.4487047464162</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>402.0534574160406</v>
       </c>
       <c r="O16" t="n">
-        <v>176.1488907147991</v>
+        <v>381.5174992961649</v>
       </c>
       <c r="P16" t="n">
-        <v>315.9153581548562</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -9239,7 +9239,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>23.69424832768873</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -9263,10 +9263,10 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>164.0278031402995</v>
+        <v>294.2427588264782</v>
       </c>
       <c r="R18" t="n">
-        <v>106.5207073584907</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9321,28 +9321,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>78.70880469517259</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
         <v>249.7804132464869</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M19" t="n">
-        <v>203.9754767084899</v>
+        <v>350.7754024353445</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>402.0534574160406</v>
       </c>
       <c r="O19" t="n">
-        <v>381.5174992961649</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>315.9153581548562</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -9476,13 +9476,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>23.69424832768873</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>294.2427588264783</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9494,7 +9494,7 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>164.0278031402994</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -9503,7 +9503,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>106.5207073584907</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9561,25 +9561,25 @@
         <v>78.70880469517259</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>90.01079145361521</v>
       </c>
       <c r="M22" t="n">
-        <v>409.3440852898551</v>
+        <v>409.3440852898552</v>
       </c>
       <c r="N22" t="n">
         <v>402.0534574160406</v>
       </c>
       <c r="O22" t="n">
-        <v>381.5174992961649</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>111.1762280078753</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -9713,10 +9713,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J24" t="n">
-        <v>187.7220514679882</v>
+        <v>164.0278031402994</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -9795,28 +9795,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>380.1908016072373</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>409.3440852898552</v>
       </c>
       <c r="N25" t="n">
         <v>402.0534574160406</v>
       </c>
       <c r="O25" t="n">
-        <v>381.5174992961649</v>
+        <v>23.87584654524569</v>
       </c>
       <c r="P25" t="n">
-        <v>219.0383163856655</v>
+        <v>315.9153581548562</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -9953,7 +9953,7 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>164.0278031402995</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -9974,7 +9974,7 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>164.0278031402997</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>106.5207073584907</v>
@@ -10035,25 +10035,25 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>249.7804132464869</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
         <v>380.1908016072373</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>219.0383163856655</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>402.0534574160406</v>
       </c>
       <c r="O28" t="n">
-        <v>284.01097909259</v>
+        <v>381.5174992961649</v>
       </c>
       <c r="P28" t="n">
-        <v>315.9153581548562</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -10190,7 +10190,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>187.7220514679883</v>
+        <v>294.242758826479</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -10214,7 +10214,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>106.5207073584907</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10269,13 +10269,13 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>78.70880469517259</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>249.7804132464869</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>189.8850327030482</v>
       </c>
       <c r="M31" t="n">
         <v>409.3440852898552</v>
@@ -10284,13 +10284,13 @@
         <v>402.0534574160406</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>381.5174992961649</v>
       </c>
       <c r="P31" t="n">
-        <v>90.01079145361528</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -10424,10 +10424,10 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J33" t="n">
-        <v>187.7220514679883</v>
+        <v>164.0278031402995</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -10506,28 +10506,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>78.70880469517259</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>249.7804132464869</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>409.3440852898552</v>
       </c>
       <c r="N34" t="n">
         <v>402.0534574160406</v>
       </c>
       <c r="O34" t="n">
-        <v>381.5174992961649</v>
+        <v>191.2117303919757</v>
       </c>
       <c r="P34" t="n">
-        <v>117.8373774473055</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -10661,10 +10661,10 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J36" t="n">
-        <v>187.7220514679883</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -10685,7 +10685,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>164.0278031402997</v>
       </c>
       <c r="R36" t="n">
         <v>106.5207073584907</v>
@@ -10743,16 +10743,16 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>78.70880469517259</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
         <v>249.7804132464869</v>
       </c>
       <c r="L37" t="n">
-        <v>176.1488907147997</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M37" t="n">
-        <v>409.3440852898552</v>
+        <v>284.01097909259</v>
       </c>
       <c r="N37" t="n">
         <v>0</v>
@@ -10898,10 +10898,10 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J39" t="n">
-        <v>187.7220514679883</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -10922,7 +10922,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>164.0278031402997</v>
       </c>
       <c r="R39" t="n">
         <v>106.5207073584907</v>
@@ -10980,28 +10980,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K40" t="n">
         <v>249.7804132464869</v>
       </c>
       <c r="L40" t="n">
-        <v>262.1483232837869</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>409.3440852898549</v>
       </c>
       <c r="N40" t="n">
-        <v>402.0534574160406</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>264.7759698663562</v>
       </c>
       <c r="P40" t="n">
-        <v>315.9153581548562</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -11217,28 +11217,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>78.70880469517259</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>249.7804132464869</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>189.8850327030482</v>
       </c>
       <c r="M43" t="n">
-        <v>409.3440852898551</v>
+        <v>409.3440852898552</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>402.0534574160406</v>
       </c>
       <c r="O43" t="n">
-        <v>176.1488907147992</v>
+        <v>381.5174992961649</v>
       </c>
       <c r="P43" t="n">
-        <v>315.9153581548562</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11375,7 +11375,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>294.242758826479</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -11396,7 +11396,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>294.2427588264792</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -11457,25 +11457,25 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>249.7804132464869</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>380.1908016072373</v>
+        <v>189.8850327030482</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>409.3440852898552</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>402.0534574160406</v>
       </c>
       <c r="O46" t="n">
         <v>381.5174992961649</v>
       </c>
       <c r="P46" t="n">
-        <v>315.9153581548562</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>55.39600240036285</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -23257,10 +23257,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C11" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>419.0596946068497</v>
@@ -23269,13 +23269,13 @@
         <v>421.717170453621</v>
       </c>
       <c r="F11" t="n">
-        <v>73.09846329294317</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>398.3411154877793</v>
       </c>
       <c r="H11" t="n">
-        <v>274.8725950469874</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23311,13 +23311,13 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>1.038379653135308</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23424,19 +23424,19 @@
         <v>161.683605144497</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>152.6527834628058</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>134.5632308897331</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>72.40471915577928</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,19 +23463,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>7.146508835688685</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>163.3485409703814</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>277.3347814691945</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23503,16 +23503,16 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E14" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G14" t="n">
-        <v>398.3411154877793</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>274.8725950469874</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23545,25 +23545,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>58.78416952972843</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>210.1602450484006</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>109.9314856817386</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y14" t="n">
-        <v>45.46233884042346</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C16" t="n">
         <v>170.2528374898731</v>
@@ -23703,10 +23703,10 @@
         <v>7.146508835688685</v>
       </c>
       <c r="S16" t="n">
-        <v>153.1543937174461</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>200.968039634142</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>277.3347814691945</v>
@@ -23721,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>165.8581243266432</v>
       </c>
     </row>
     <row r="17">
@@ -23731,19 +23731,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E17" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>65.05138148825819</v>
+        <v>112.3212299759977</v>
       </c>
       <c r="G17" t="n">
         <v>398.3411154877793</v>
@@ -23782,7 +23782,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>58.78416952972843</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -23791,13 +23791,13 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y17" t="n">
         <v>401.2838973446586</v>
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>151.662750437074</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23898,7 +23898,7 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -23937,25 +23937,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>7.146508835688685</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>153.1543937174461</v>
       </c>
       <c r="T19" t="n">
-        <v>67.36453655255147</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>277.3347814691945</v>
       </c>
       <c r="V19" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -23968,25 +23968,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D20" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>12.70755368302105</v>
       </c>
       <c r="H20" t="n">
-        <v>91.00761285193065</v>
+        <v>274.8725950469874</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24019,13 +24019,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>58.78416952972844</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>210.1602450484006</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>255.6149958056585</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -24037,7 +24037,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y20" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24129,19 +24129,19 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E22" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>7.667607350381758</v>
+        <v>163.7176533411321</v>
       </c>
       <c r="H22" t="n">
         <v>134.5632308897331</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>7.146508835688685</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24183,10 +24183,10 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>62.85121021724208</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24211,7 +24211,7 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D23" t="n">
-        <v>360.6058578024956</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -24220,10 +24220,10 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>398.3411154877793</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>274.8725950469874</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -24256,25 +24256,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>58.78416952972844</v>
       </c>
       <c r="T23" t="n">
-        <v>210.1602450484006</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>255.6149958056585</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>353.914520725013</v>
+        <v>20.38158356822061</v>
       </c>
       <c r="W23" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="24">
@@ -24372,10 +24372,10 @@
         <v>161.683605144497</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>117.6662223081383</v>
       </c>
       <c r="F25" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>163.7176533411321</v>
@@ -24411,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>7.146508835688692</v>
+        <v>7.146508835688685</v>
       </c>
       <c r="S25" t="n">
-        <v>153.1543937174461</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24423,7 +24423,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>18.44801273466254</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="26">
@@ -24454,13 +24454,13 @@
         <v>421.717170453621</v>
       </c>
       <c r="F26" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>24.45383150075673</v>
       </c>
       <c r="H26" t="n">
-        <v>238.6869087795347</v>
+        <v>274.8725950469874</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24502,16 +24502,16 @@
         <v>255.6149958056585</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W26" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y26" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24600,25 +24600,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D28" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E28" t="n">
-        <v>62.88932541863163</v>
+        <v>94.70039087968577</v>
       </c>
       <c r="F28" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G28" t="n">
-        <v>163.7176533411321</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>134.5632308897331</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>7.146508835688692</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24657,7 +24657,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>277.3347814691945</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24688,16 +24688,16 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>420.8729399924937</v>
+        <v>85.73326275550778</v>
       </c>
       <c r="G29" t="n">
-        <v>398.3411154877793</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>274.8725950469874</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -24730,22 +24730,22 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>58.78416952972844</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>210.1602450484006</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>255.6149958056585</v>
       </c>
       <c r="V29" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X29" t="n">
-        <v>116.5356931911181</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -24846,16 +24846,16 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G31" t="n">
-        <v>163.7176533411321</v>
+        <v>89.57802574012288</v>
       </c>
       <c r="H31" t="n">
-        <v>134.5632308897331</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -24885,16 +24885,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>7.146508835688699</v>
+        <v>7.146508835688692</v>
       </c>
       <c r="S31" t="n">
         <v>153.1543937174461</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>237.1598548985255</v>
       </c>
       <c r="U31" t="n">
-        <v>87.99021324626355</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="32">
@@ -24916,25 +24916,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D32" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>50.57675988588653</v>
       </c>
       <c r="G32" t="n">
-        <v>227.8200532489283</v>
+        <v>398.3411154877793</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>274.8725950469874</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -24976,13 +24976,13 @@
         <v>255.6149958056585</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X32" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>401.2838973446586</v>
@@ -25083,16 +25083,16 @@
         <v>161.683605144497</v>
       </c>
       <c r="E34" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>148.3644406900067</v>
+        <v>44.78213623677189</v>
       </c>
       <c r="H34" t="n">
-        <v>134.5632308897331</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -25122,22 +25122,22 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>7.146508835688692</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>153.1543937174461</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>237.1598548985255</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>277.3347814691945</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25156,22 +25156,22 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C35" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E35" t="n">
-        <v>272.7223541104936</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F35" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>7.550288554069823</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>274.8725950469874</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25207,19 +25207,19 @@
         <v>58.78416952972844</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>210.1602450484006</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>255.6149958056585</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>401.2838973446586</v>
@@ -25326,10 +25326,10 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>163.7176533411321</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>134.5632308897331</v>
       </c>
       <c r="I37" t="n">
         <v>72.40471915577928</v>
@@ -25359,28 +25359,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>7.146508835688699</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>86.99416646226007</v>
+        <v>172.8792081602616</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>277.3347814691945</v>
       </c>
       <c r="V37" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="38">
@@ -25396,19 +25396,19 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D38" t="n">
-        <v>419.0596946068497</v>
+        <v>163.3930092604504</v>
       </c>
       <c r="E38" t="n">
-        <v>99.24114021358946</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>398.3411154877793</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>274.8725950469874</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -25450,16 +25450,16 @@
         <v>255.6149958056585</v>
       </c>
       <c r="V38" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y38" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -25551,7 +25551,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D40" t="n">
         <v>161.683605144497</v>
@@ -25560,13 +25560,13 @@
         <v>164.546123788675</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>134.5632308897331</v>
       </c>
       <c r="I40" t="n">
         <v>72.40471915577928</v>
@@ -25596,13 +25596,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>7.146508835688692</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>0.5210985146932501</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25611,10 +25611,10 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>242.4885746245199</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25627,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -25639,10 +25639,10 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>148.573575001013</v>
+        <v>21.66466016376069</v>
       </c>
       <c r="H41" t="n">
         <v>274.8725950469874</v>
@@ -25678,19 +25678,19 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>58.78416952972844</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>210.1602450484006</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>255.6149958056585</v>
       </c>
       <c r="V41" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W41" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>407.6027988439302</v>
@@ -25791,22 +25791,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F43" t="n">
-        <v>63.59174985770537</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>163.7176533411321</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>134.5632308897331</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>72.40471915577928</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25836,25 +25836,25 @@
         <v>7.146508835688692</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>153.1543937174461</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>98.2465890328823</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="44">
@@ -25870,16 +25870,16 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>305.3937163527503</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>398.3411154877793</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -25915,13 +25915,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>58.78416952972844</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>210.1602450484006</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>255.6149958056585</v>
+        <v>28.51486851845576</v>
       </c>
       <c r="V44" t="n">
         <v>353.914520725013</v>
@@ -25933,7 +25933,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="45">
@@ -26022,16 +26022,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D46" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -26070,13 +26070,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>7.146508835688692</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>237.1598548985255</v>
+        <v>91.69684311463811</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26085,13 +26085,13 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>103.7572375892256</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>372752.381597377</v>
+        <v>372752.3815973771</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>372752.3815973769</v>
+        <v>372752.3815973771</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>372752.381597377</v>
+        <v>372752.3815973771</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>372752.381597377</v>
+        <v>372752.3815973771</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>372752.381597377</v>
+        <v>372752.3815973769</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>372752.3815973771</v>
+        <v>372752.3815973769</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>372752.381597377</v>
+        <v>372752.3815973769</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>372752.3815973771</v>
+        <v>372752.381597377</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>372752.381597377</v>
+        <v>372752.3815973771</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>372752.381597377</v>
+        <v>372752.3815973771</v>
       </c>
     </row>
   </sheetData>
@@ -26316,43 +26316,43 @@
         <v>415986.0355340961</v>
       </c>
       <c r="C2" t="n">
-        <v>415986.0355340962</v>
+        <v>415986.0355340961</v>
       </c>
       <c r="D2" t="n">
-        <v>415986.0355340962</v>
+        <v>415986.0355340961</v>
       </c>
       <c r="E2" t="n">
-        <v>244275.1516432989</v>
+        <v>244275.151643299</v>
       </c>
       <c r="F2" t="n">
-        <v>244275.1516432988</v>
+        <v>244275.151643299</v>
       </c>
       <c r="G2" t="n">
-        <v>244275.1516432989</v>
+        <v>244275.1516432991</v>
       </c>
       <c r="H2" t="n">
         <v>244275.1516432989</v>
       </c>
       <c r="I2" t="n">
-        <v>244275.151643299</v>
+        <v>244275.1516432989</v>
       </c>
       <c r="J2" t="n">
         <v>244275.1516432989</v>
       </c>
       <c r="K2" t="n">
-        <v>244275.1516432988</v>
+        <v>244275.1516432989</v>
       </c>
       <c r="L2" t="n">
-        <v>244275.1516432988</v>
+        <v>244275.1516432989</v>
       </c>
       <c r="M2" t="n">
         <v>244275.1516432989</v>
       </c>
       <c r="N2" t="n">
+        <v>244275.1516432988</v>
+      </c>
+      <c r="O2" t="n">
         <v>244275.1516432989</v>
-      </c>
-      <c r="O2" t="n">
-        <v>244275.1516432988</v>
       </c>
       <c r="P2" t="n">
         <v>244275.1516432989</v>
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>50079.88112084009</v>
+        <v>50079.88112084008</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>505372.9974992514</v>
+        <v>505372.9974992515</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26417,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>309806.3511207717</v>
+        <v>309806.3511207718</v>
       </c>
       <c r="C4" t="n">
         <v>309806.3511207717</v>
       </c>
       <c r="D4" t="n">
-        <v>309806.3511207717</v>
+        <v>309806.3511207718</v>
       </c>
       <c r="E4" t="n">
         <v>27834.34259042052</v>
       </c>
       <c r="F4" t="n">
+        <v>27834.34259042051</v>
+      </c>
+      <c r="G4" t="n">
         <v>27834.34259042052</v>
       </c>
-      <c r="G4" t="n">
+      <c r="H4" t="n">
+        <v>27834.34259042051</v>
+      </c>
+      <c r="I4" t="n">
         <v>27834.34259042053</v>
       </c>
-      <c r="H4" t="n">
+      <c r="J4" t="n">
+        <v>27834.34259042052</v>
+      </c>
+      <c r="K4" t="n">
         <v>27834.34259042053</v>
-      </c>
-      <c r="I4" t="n">
-        <v>27834.34259042052</v>
-      </c>
-      <c r="J4" t="n">
-        <v>27834.34259042054</v>
-      </c>
-      <c r="K4" t="n">
-        <v>27834.34259042054</v>
       </c>
       <c r="L4" t="n">
         <v>27834.34259042053</v>
       </c>
       <c r="M4" t="n">
-        <v>27834.34259042053</v>
+        <v>27834.34259042054</v>
       </c>
       <c r="N4" t="n">
-        <v>27834.34259042053</v>
+        <v>27834.34259042052</v>
       </c>
       <c r="O4" t="n">
-        <v>27834.34259042053</v>
+        <v>27834.34259042054</v>
       </c>
       <c r="P4" t="n">
-        <v>27834.34259042052</v>
+        <v>27834.34259042054</v>
       </c>
     </row>
     <row r="5">
@@ -26478,19 +26478,19 @@
         <v>34760.56666652932</v>
       </c>
       <c r="E5" t="n">
-        <v>42470.59255039771</v>
+        <v>42470.59255039772</v>
       </c>
       <c r="F5" t="n">
-        <v>42470.59255039771</v>
+        <v>42470.59255039772</v>
       </c>
       <c r="G5" t="n">
+        <v>42470.59255039773</v>
+      </c>
+      <c r="H5" t="n">
         <v>42470.59255039772</v>
       </c>
-      <c r="H5" t="n">
-        <v>42470.59255039771</v>
-      </c>
       <c r="I5" t="n">
-        <v>42470.59255039771</v>
+        <v>42470.59255039772</v>
       </c>
       <c r="J5" t="n">
         <v>42470.59255039771</v>
@@ -26505,7 +26505,7 @@
         <v>42470.59255039771</v>
       </c>
       <c r="N5" t="n">
-        <v>42470.59255039771</v>
+        <v>42470.5925503977</v>
       </c>
       <c r="O5" t="n">
         <v>42470.59255039771</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>21339.236625955</v>
+        <v>21317.56456121702</v>
       </c>
       <c r="C6" t="n">
-        <v>71419.11774679515</v>
+        <v>71397.44568205711</v>
       </c>
       <c r="D6" t="n">
-        <v>71419.11774679521</v>
+        <v>71397.44568205711</v>
       </c>
       <c r="E6" t="n">
-        <v>-331402.7809967707</v>
+        <v>-332016.5595576839</v>
       </c>
       <c r="F6" t="n">
-        <v>173970.2165024806</v>
+        <v>173356.4379415677</v>
       </c>
       <c r="G6" t="n">
-        <v>173970.2165024806</v>
+        <v>173356.4379415677</v>
       </c>
       <c r="H6" t="n">
-        <v>173970.2165024806</v>
+        <v>173356.4379415676</v>
       </c>
       <c r="I6" t="n">
-        <v>173970.2165024808</v>
+        <v>173356.4379415676</v>
       </c>
       <c r="J6" t="n">
-        <v>173970.2165024806</v>
+        <v>173356.4379415676</v>
       </c>
       <c r="K6" t="n">
-        <v>173970.2165024805</v>
+        <v>173356.4379415676</v>
       </c>
       <c r="L6" t="n">
-        <v>173970.2165024806</v>
+        <v>173356.4379415676</v>
       </c>
       <c r="M6" t="n">
-        <v>43336.81414006144</v>
+        <v>42723.03557914832</v>
       </c>
       <c r="N6" t="n">
-        <v>173970.2165024806</v>
+        <v>173356.4379415675</v>
       </c>
       <c r="O6" t="n">
-        <v>173970.2165024806</v>
+        <v>173356.4379415676</v>
       </c>
       <c r="P6" t="n">
-        <v>173970.2165024807</v>
+        <v>173356.4379415676</v>
       </c>
     </row>
   </sheetData>
@@ -26746,7 +26746,7 @@
         <v>51.97094800593192</v>
       </c>
       <c r="E3" t="n">
-        <v>486.1958792932883</v>
+        <v>486.1958792932884</v>
       </c>
       <c r="F3" t="n">
         <v>486.1958792932884</v>
@@ -26758,7 +26758,7 @@
         <v>486.1958792932884</v>
       </c>
       <c r="I3" t="n">
-        <v>486.1958792932883</v>
+        <v>486.1958792932884</v>
       </c>
       <c r="J3" t="n">
         <v>486.1958792932883</v>
@@ -26798,22 +26798,22 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
+        <v>524.2026707533557</v>
+      </c>
+      <c r="F4" t="n">
+        <v>524.2026707533557</v>
+      </c>
+      <c r="G4" t="n">
+        <v>524.202670753356</v>
+      </c>
+      <c r="H4" t="n">
+        <v>524.2026707533557</v>
+      </c>
+      <c r="I4" t="n">
+        <v>524.2026707533557</v>
+      </c>
+      <c r="J4" t="n">
         <v>524.2026707533556</v>
-      </c>
-      <c r="F4" t="n">
-        <v>524.2026707533556</v>
-      </c>
-      <c r="G4" t="n">
-        <v>524.2026707533557</v>
-      </c>
-      <c r="H4" t="n">
-        <v>524.2026707533556</v>
-      </c>
-      <c r="I4" t="n">
-        <v>524.2026707533556</v>
-      </c>
-      <c r="J4" t="n">
-        <v>524.2026707533557</v>
       </c>
       <c r="K4" t="n">
         <v>524.2026707533557</v>
@@ -26825,13 +26825,13 @@
         <v>524.2026707533557</v>
       </c>
       <c r="N4" t="n">
+        <v>524.2026707533555</v>
+      </c>
+      <c r="O4" t="n">
         <v>524.2026707533557</v>
       </c>
-      <c r="O4" t="n">
-        <v>524.2026707533556</v>
-      </c>
       <c r="P4" t="n">
-        <v>524.2026707533556</v>
+        <v>524.2026707533557</v>
       </c>
     </row>
   </sheetData>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>434.2249312873564</v>
+        <v>434.2249312873565</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -31770,10 +31770,10 @@
         <v>308.4436431018115</v>
       </c>
       <c r="M11" t="n">
-        <v>343.2029836782215</v>
+        <v>343.2029836782216</v>
       </c>
       <c r="N11" t="n">
-        <v>348.7563667618077</v>
+        <v>348.7563667618078</v>
       </c>
       <c r="O11" t="n">
         <v>329.3207475669429</v>
@@ -31782,10 +31782,10 @@
         <v>281.067638943614</v>
       </c>
       <c r="Q11" t="n">
-        <v>211.0700914976204</v>
+        <v>211.0700914976205</v>
       </c>
       <c r="R11" t="n">
-        <v>122.7778970961086</v>
+        <v>122.7778970961087</v>
       </c>
       <c r="S11" t="n">
         <v>44.53945165586256</v>
@@ -31840,7 +31840,7 @@
         <v>36.00601558917278</v>
       </c>
       <c r="J12" t="n">
-        <v>98.80325882883703</v>
+        <v>98.80325882883704</v>
       </c>
       <c r="K12" t="n">
         <v>168.8705064900094</v>
@@ -31858,13 +31858,13 @@
         <v>248.8176213587077</v>
       </c>
       <c r="P12" t="n">
-        <v>199.6980772893508</v>
+        <v>199.6980772893509</v>
       </c>
       <c r="Q12" t="n">
         <v>133.4928761410553</v>
       </c>
       <c r="R12" t="n">
-        <v>64.93008365354521</v>
+        <v>64.93008365354522</v>
       </c>
       <c r="S12" t="n">
         <v>19.42490140384033</v>
@@ -31873,7 +31873,7 @@
         <v>4.215226538401244</v>
       </c>
       <c r="U12" t="n">
-        <v>0.06880130367357856</v>
+        <v>0.06880130367357858</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,10 +31910,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.8767466675780609</v>
+        <v>0.876746667578061</v>
       </c>
       <c r="H13" t="n">
-        <v>7.795074917194038</v>
+        <v>7.795074917194039</v>
       </c>
       <c r="I13" t="n">
         <v>26.36616342134751</v>
@@ -31925,7 +31925,7 @@
         <v>101.8620219240692</v>
       </c>
       <c r="L13" t="n">
-        <v>130.3483181961055</v>
+        <v>130.3483181961056</v>
       </c>
       <c r="M13" t="n">
         <v>137.4340253549864</v>
@@ -31940,10 +31940,10 @@
         <v>106.0385242314411</v>
       </c>
       <c r="Q13" t="n">
-        <v>73.41557777328653</v>
+        <v>73.41557777328654</v>
       </c>
       <c r="R13" t="n">
-        <v>39.42171834400989</v>
+        <v>39.4217183440099</v>
       </c>
       <c r="S13" t="n">
         <v>15.27930328861038</v>
@@ -31989,13 +31989,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.954556298666484</v>
+        <v>1.954556298666485</v>
       </c>
       <c r="H14" t="n">
         <v>20.01709969371814</v>
       </c>
       <c r="I14" t="n">
-        <v>75.35303170433971</v>
+        <v>75.35303170433973</v>
       </c>
       <c r="J14" t="n">
         <v>165.8905226539447</v>
@@ -32004,7 +32004,7 @@
         <v>248.626890776497</v>
       </c>
       <c r="L14" t="n">
-        <v>308.4436431018115</v>
+        <v>308.4436431018116</v>
       </c>
       <c r="M14" t="n">
         <v>343.2029836782216</v>
@@ -32028,7 +32028,7 @@
         <v>44.53945165586256</v>
       </c>
       <c r="T14" t="n">
-        <v>8.55607019741254</v>
+        <v>8.556070197412541</v>
       </c>
       <c r="U14" t="n">
         <v>0.1563645038933187</v>
@@ -32077,19 +32077,19 @@
         <v>36.00601558917278</v>
       </c>
       <c r="J15" t="n">
-        <v>98.80325882883704</v>
+        <v>98.80325882883706</v>
       </c>
       <c r="K15" t="n">
-        <v>168.8705064900094</v>
+        <v>168.8705064900095</v>
       </c>
       <c r="L15" t="n">
         <v>227.0672358907004</v>
       </c>
       <c r="M15" t="n">
-        <v>264.9767542148421</v>
+        <v>264.9767542148422</v>
       </c>
       <c r="N15" t="n">
-        <v>271.9899004359689</v>
+        <v>271.989900435969</v>
       </c>
       <c r="O15" t="n">
         <v>248.8176213587077</v>
@@ -32098,7 +32098,7 @@
         <v>199.6980772893509</v>
       </c>
       <c r="Q15" t="n">
-        <v>133.4928761410553</v>
+        <v>133.4928761410554</v>
       </c>
       <c r="R15" t="n">
         <v>64.93008365354522</v>
@@ -32107,7 +32107,7 @@
         <v>19.42490140384033</v>
       </c>
       <c r="T15" t="n">
-        <v>4.215226538401244</v>
+        <v>4.215226538401245</v>
       </c>
       <c r="U15" t="n">
         <v>0.06880130367357858</v>
@@ -32153,13 +32153,13 @@
         <v>7.795074917194039</v>
       </c>
       <c r="I16" t="n">
-        <v>26.36616342134751</v>
+        <v>26.36616342134752</v>
       </c>
       <c r="J16" t="n">
-        <v>61.9859893977689</v>
+        <v>61.98598939776891</v>
       </c>
       <c r="K16" t="n">
-        <v>101.8620219240692</v>
+        <v>101.8620219240693</v>
       </c>
       <c r="L16" t="n">
         <v>130.3483181961056</v>
@@ -32177,19 +32177,19 @@
         <v>106.0385242314411</v>
       </c>
       <c r="Q16" t="n">
-        <v>73.41557777328654</v>
+        <v>73.41557777328656</v>
       </c>
       <c r="R16" t="n">
         <v>39.4217183440099</v>
       </c>
       <c r="S16" t="n">
-        <v>15.27930328861038</v>
+        <v>15.27930328861039</v>
       </c>
       <c r="T16" t="n">
         <v>3.746099397833532</v>
       </c>
       <c r="U16" t="n">
-        <v>0.04782254550425792</v>
+        <v>0.04782254550425793</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,13 +32226,13 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.954556298666484</v>
+        <v>1.954556298666485</v>
       </c>
       <c r="H17" t="n">
         <v>20.01709969371814</v>
       </c>
       <c r="I17" t="n">
-        <v>75.35303170433971</v>
+        <v>75.35303170433973</v>
       </c>
       <c r="J17" t="n">
         <v>165.8905226539447</v>
@@ -32241,7 +32241,7 @@
         <v>248.626890776497</v>
       </c>
       <c r="L17" t="n">
-        <v>308.4436431018115</v>
+        <v>308.4436431018116</v>
       </c>
       <c r="M17" t="n">
         <v>343.2029836782216</v>
@@ -32265,7 +32265,7 @@
         <v>44.53945165586256</v>
       </c>
       <c r="T17" t="n">
-        <v>8.55607019741254</v>
+        <v>8.556070197412541</v>
       </c>
       <c r="U17" t="n">
         <v>0.1563645038933187</v>
@@ -32314,19 +32314,19 @@
         <v>36.00601558917278</v>
       </c>
       <c r="J18" t="n">
-        <v>98.80325882883704</v>
+        <v>98.80325882883706</v>
       </c>
       <c r="K18" t="n">
-        <v>168.8705064900094</v>
+        <v>168.8705064900095</v>
       </c>
       <c r="L18" t="n">
         <v>227.0672358907004</v>
       </c>
       <c r="M18" t="n">
-        <v>264.9767542148421</v>
+        <v>264.9767542148422</v>
       </c>
       <c r="N18" t="n">
-        <v>271.9899004359689</v>
+        <v>271.989900435969</v>
       </c>
       <c r="O18" t="n">
         <v>248.8176213587077</v>
@@ -32335,7 +32335,7 @@
         <v>199.6980772893509</v>
       </c>
       <c r="Q18" t="n">
-        <v>133.4928761410553</v>
+        <v>133.4928761410554</v>
       </c>
       <c r="R18" t="n">
         <v>64.93008365354522</v>
@@ -32344,7 +32344,7 @@
         <v>19.42490140384033</v>
       </c>
       <c r="T18" t="n">
-        <v>4.215226538401244</v>
+        <v>4.215226538401245</v>
       </c>
       <c r="U18" t="n">
         <v>0.06880130367357858</v>
@@ -32390,13 +32390,13 @@
         <v>7.795074917194039</v>
       </c>
       <c r="I19" t="n">
-        <v>26.36616342134751</v>
+        <v>26.36616342134752</v>
       </c>
       <c r="J19" t="n">
-        <v>61.9859893977689</v>
+        <v>61.98598939776891</v>
       </c>
       <c r="K19" t="n">
-        <v>101.8620219240692</v>
+        <v>101.8620219240693</v>
       </c>
       <c r="L19" t="n">
         <v>130.3483181961056</v>
@@ -32414,19 +32414,19 @@
         <v>106.0385242314411</v>
       </c>
       <c r="Q19" t="n">
-        <v>73.41557777328654</v>
+        <v>73.41557777328656</v>
       </c>
       <c r="R19" t="n">
         <v>39.4217183440099</v>
       </c>
       <c r="S19" t="n">
-        <v>15.27930328861038</v>
+        <v>15.27930328861039</v>
       </c>
       <c r="T19" t="n">
         <v>3.746099397833532</v>
       </c>
       <c r="U19" t="n">
-        <v>0.04782254550425792</v>
+        <v>0.04782254550425793</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,13 +32463,13 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.954556298666484</v>
+        <v>1.954556298666485</v>
       </c>
       <c r="H20" t="n">
         <v>20.01709969371814</v>
       </c>
       <c r="I20" t="n">
-        <v>75.35303170433971</v>
+        <v>75.35303170433973</v>
       </c>
       <c r="J20" t="n">
         <v>165.8905226539447</v>
@@ -32478,7 +32478,7 @@
         <v>248.626890776497</v>
       </c>
       <c r="L20" t="n">
-        <v>308.4436431018115</v>
+        <v>308.4436431018116</v>
       </c>
       <c r="M20" t="n">
         <v>343.2029836782216</v>
@@ -32502,7 +32502,7 @@
         <v>44.53945165586256</v>
       </c>
       <c r="T20" t="n">
-        <v>8.55607019741254</v>
+        <v>8.556070197412541</v>
       </c>
       <c r="U20" t="n">
         <v>0.1563645038933187</v>
@@ -32551,19 +32551,19 @@
         <v>36.00601558917278</v>
       </c>
       <c r="J21" t="n">
-        <v>98.80325882883704</v>
+        <v>98.80325882883706</v>
       </c>
       <c r="K21" t="n">
-        <v>168.8705064900094</v>
+        <v>168.8705064900095</v>
       </c>
       <c r="L21" t="n">
         <v>227.0672358907004</v>
       </c>
       <c r="M21" t="n">
-        <v>264.9767542148421</v>
+        <v>264.9767542148422</v>
       </c>
       <c r="N21" t="n">
-        <v>271.9899004359689</v>
+        <v>271.989900435969</v>
       </c>
       <c r="O21" t="n">
         <v>248.8176213587077</v>
@@ -32572,7 +32572,7 @@
         <v>199.6980772893509</v>
       </c>
       <c r="Q21" t="n">
-        <v>133.4928761410553</v>
+        <v>133.4928761410554</v>
       </c>
       <c r="R21" t="n">
         <v>64.93008365354522</v>
@@ -32581,7 +32581,7 @@
         <v>19.42490140384033</v>
       </c>
       <c r="T21" t="n">
-        <v>4.215226538401244</v>
+        <v>4.215226538401245</v>
       </c>
       <c r="U21" t="n">
         <v>0.06880130367357858</v>
@@ -32627,13 +32627,13 @@
         <v>7.795074917194039</v>
       </c>
       <c r="I22" t="n">
-        <v>26.36616342134751</v>
+        <v>26.36616342134752</v>
       </c>
       <c r="J22" t="n">
-        <v>61.9859893977689</v>
+        <v>61.98598939776891</v>
       </c>
       <c r="K22" t="n">
-        <v>101.8620219240692</v>
+        <v>101.8620219240693</v>
       </c>
       <c r="L22" t="n">
         <v>130.3483181961056</v>
@@ -32651,19 +32651,19 @@
         <v>106.0385242314411</v>
       </c>
       <c r="Q22" t="n">
-        <v>73.41557777328654</v>
+        <v>73.41557777328656</v>
       </c>
       <c r="R22" t="n">
         <v>39.4217183440099</v>
       </c>
       <c r="S22" t="n">
-        <v>15.27930328861038</v>
+        <v>15.27930328861039</v>
       </c>
       <c r="T22" t="n">
         <v>3.746099397833532</v>
       </c>
       <c r="U22" t="n">
-        <v>0.04782254550425792</v>
+        <v>0.04782254550425793</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32718,10 +32718,10 @@
         <v>308.4436431018115</v>
       </c>
       <c r="M23" t="n">
-        <v>343.2029836782215</v>
+        <v>343.2029836782216</v>
       </c>
       <c r="N23" t="n">
-        <v>348.7563667618077</v>
+        <v>348.7563667618078</v>
       </c>
       <c r="O23" t="n">
         <v>329.3207475669429</v>
@@ -32730,10 +32730,10 @@
         <v>281.067638943614</v>
       </c>
       <c r="Q23" t="n">
-        <v>211.0700914976204</v>
+        <v>211.0700914976205</v>
       </c>
       <c r="R23" t="n">
-        <v>122.7778970961086</v>
+        <v>122.7778970961087</v>
       </c>
       <c r="S23" t="n">
         <v>44.53945165586256</v>
@@ -32788,7 +32788,7 @@
         <v>36.00601558917278</v>
       </c>
       <c r="J24" t="n">
-        <v>98.80325882883703</v>
+        <v>98.80325882883704</v>
       </c>
       <c r="K24" t="n">
         <v>168.8705064900094</v>
@@ -32806,13 +32806,13 @@
         <v>248.8176213587077</v>
       </c>
       <c r="P24" t="n">
-        <v>199.6980772893508</v>
+        <v>199.6980772893509</v>
       </c>
       <c r="Q24" t="n">
         <v>133.4928761410553</v>
       </c>
       <c r="R24" t="n">
-        <v>64.93008365354521</v>
+        <v>64.93008365354522</v>
       </c>
       <c r="S24" t="n">
         <v>19.42490140384033</v>
@@ -32821,7 +32821,7 @@
         <v>4.215226538401244</v>
       </c>
       <c r="U24" t="n">
-        <v>0.06880130367357856</v>
+        <v>0.06880130367357858</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,10 +32858,10 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.8767466675780609</v>
+        <v>0.876746667578061</v>
       </c>
       <c r="H25" t="n">
-        <v>7.795074917194038</v>
+        <v>7.795074917194039</v>
       </c>
       <c r="I25" t="n">
         <v>26.36616342134751</v>
@@ -32873,7 +32873,7 @@
         <v>101.8620219240692</v>
       </c>
       <c r="L25" t="n">
-        <v>130.3483181961055</v>
+        <v>130.3483181961056</v>
       </c>
       <c r="M25" t="n">
         <v>137.4340253549864</v>
@@ -32888,10 +32888,10 @@
         <v>106.0385242314411</v>
       </c>
       <c r="Q25" t="n">
-        <v>73.41557777328653</v>
+        <v>73.41557777328654</v>
       </c>
       <c r="R25" t="n">
-        <v>39.42171834400989</v>
+        <v>39.4217183440099</v>
       </c>
       <c r="S25" t="n">
         <v>15.27930328861038</v>
@@ -32940,10 +32940,10 @@
         <v>1.954556298666484</v>
       </c>
       <c r="H26" t="n">
-        <v>20.01709969371813</v>
+        <v>20.01709969371814</v>
       </c>
       <c r="I26" t="n">
-        <v>75.3530317043397</v>
+        <v>75.35303170433971</v>
       </c>
       <c r="J26" t="n">
         <v>165.8905226539447</v>
@@ -32961,10 +32961,10 @@
         <v>348.7563667618077</v>
       </c>
       <c r="O26" t="n">
-        <v>329.3207475669428</v>
+        <v>329.3207475669429</v>
       </c>
       <c r="P26" t="n">
-        <v>281.0676389436139</v>
+        <v>281.067638943614</v>
       </c>
       <c r="Q26" t="n">
         <v>211.0700914976204</v>
@@ -32973,10 +32973,10 @@
         <v>122.7778970961086</v>
       </c>
       <c r="S26" t="n">
-        <v>44.53945165586255</v>
+        <v>44.53945165586256</v>
       </c>
       <c r="T26" t="n">
-        <v>8.556070197412538</v>
+        <v>8.55607019741254</v>
       </c>
       <c r="U26" t="n">
         <v>0.1563645038933187</v>
@@ -33022,7 +33022,7 @@
         <v>10.10003137928133</v>
       </c>
       <c r="I27" t="n">
-        <v>36.00601558917277</v>
+        <v>36.00601558917278</v>
       </c>
       <c r="J27" t="n">
         <v>98.80325882883703</v>
@@ -33040,7 +33040,7 @@
         <v>271.9899004359689</v>
       </c>
       <c r="O27" t="n">
-        <v>248.8176213587076</v>
+        <v>248.8176213587077</v>
       </c>
       <c r="P27" t="n">
         <v>199.6980772893508</v>
@@ -33055,7 +33055,7 @@
         <v>19.42490140384033</v>
       </c>
       <c r="T27" t="n">
-        <v>4.215226538401243</v>
+        <v>4.215226538401244</v>
       </c>
       <c r="U27" t="n">
         <v>0.06880130367357856</v>
@@ -33095,16 +33095,16 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.8767466675780607</v>
+        <v>0.8767466675780609</v>
       </c>
       <c r="H28" t="n">
-        <v>7.795074917194037</v>
+        <v>7.795074917194038</v>
       </c>
       <c r="I28" t="n">
         <v>26.36616342134751</v>
       </c>
       <c r="J28" t="n">
-        <v>61.98598939776889</v>
+        <v>61.9859893977689</v>
       </c>
       <c r="K28" t="n">
         <v>101.8620219240692</v>
@@ -33113,7 +33113,7 @@
         <v>130.3483181961055</v>
       </c>
       <c r="M28" t="n">
-        <v>137.4340253549863</v>
+        <v>137.4340253549864</v>
       </c>
       <c r="N28" t="n">
         <v>134.1661514121955</v>
@@ -33122,22 +33122,22 @@
         <v>123.9241562500336</v>
       </c>
       <c r="P28" t="n">
-        <v>106.038524231441</v>
+        <v>106.0385242314411</v>
       </c>
       <c r="Q28" t="n">
         <v>73.41557777328653</v>
       </c>
       <c r="R28" t="n">
-        <v>39.42171834400988</v>
+        <v>39.42171834400989</v>
       </c>
       <c r="S28" t="n">
         <v>15.27930328861038</v>
       </c>
       <c r="T28" t="n">
-        <v>3.746099397833531</v>
+        <v>3.746099397833532</v>
       </c>
       <c r="U28" t="n">
-        <v>0.04782254550425791</v>
+        <v>0.04782254550425792</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33177,10 +33177,10 @@
         <v>1.954556298666484</v>
       </c>
       <c r="H29" t="n">
-        <v>20.01709969371813</v>
+        <v>20.01709969371814</v>
       </c>
       <c r="I29" t="n">
-        <v>75.3530317043397</v>
+        <v>75.35303170433971</v>
       </c>
       <c r="J29" t="n">
         <v>165.8905226539447</v>
@@ -33198,10 +33198,10 @@
         <v>348.7563667618077</v>
       </c>
       <c r="O29" t="n">
-        <v>329.3207475669428</v>
+        <v>329.3207475669429</v>
       </c>
       <c r="P29" t="n">
-        <v>281.0676389436139</v>
+        <v>281.067638943614</v>
       </c>
       <c r="Q29" t="n">
         <v>211.0700914976204</v>
@@ -33210,10 +33210,10 @@
         <v>122.7778970961086</v>
       </c>
       <c r="S29" t="n">
-        <v>44.53945165586255</v>
+        <v>44.53945165586256</v>
       </c>
       <c r="T29" t="n">
-        <v>8.556070197412538</v>
+        <v>8.55607019741254</v>
       </c>
       <c r="U29" t="n">
         <v>0.1563645038933187</v>
@@ -33259,7 +33259,7 @@
         <v>10.10003137928133</v>
       </c>
       <c r="I30" t="n">
-        <v>36.00601558917277</v>
+        <v>36.00601558917278</v>
       </c>
       <c r="J30" t="n">
         <v>98.80325882883703</v>
@@ -33277,7 +33277,7 @@
         <v>271.9899004359689</v>
       </c>
       <c r="O30" t="n">
-        <v>248.8176213587076</v>
+        <v>248.8176213587077</v>
       </c>
       <c r="P30" t="n">
         <v>199.6980772893508</v>
@@ -33292,7 +33292,7 @@
         <v>19.42490140384033</v>
       </c>
       <c r="T30" t="n">
-        <v>4.215226538401243</v>
+        <v>4.215226538401244</v>
       </c>
       <c r="U30" t="n">
         <v>0.06880130367357856</v>
@@ -33332,16 +33332,16 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.8767466675780607</v>
+        <v>0.8767466675780609</v>
       </c>
       <c r="H31" t="n">
-        <v>7.795074917194037</v>
+        <v>7.795074917194038</v>
       </c>
       <c r="I31" t="n">
         <v>26.36616342134751</v>
       </c>
       <c r="J31" t="n">
-        <v>61.98598939776889</v>
+        <v>61.9859893977689</v>
       </c>
       <c r="K31" t="n">
         <v>101.8620219240692</v>
@@ -33350,7 +33350,7 @@
         <v>130.3483181961055</v>
       </c>
       <c r="M31" t="n">
-        <v>137.4340253549863</v>
+        <v>137.4340253549864</v>
       </c>
       <c r="N31" t="n">
         <v>134.1661514121955</v>
@@ -33359,22 +33359,22 @@
         <v>123.9241562500336</v>
       </c>
       <c r="P31" t="n">
-        <v>106.038524231441</v>
+        <v>106.0385242314411</v>
       </c>
       <c r="Q31" t="n">
         <v>73.41557777328653</v>
       </c>
       <c r="R31" t="n">
-        <v>39.42171834400988</v>
+        <v>39.42171834400989</v>
       </c>
       <c r="S31" t="n">
         <v>15.27930328861038</v>
       </c>
       <c r="T31" t="n">
-        <v>3.746099397833531</v>
+        <v>3.746099397833532</v>
       </c>
       <c r="U31" t="n">
-        <v>0.04782254550425791</v>
+        <v>0.04782254550425792</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33414,10 +33414,10 @@
         <v>1.954556298666484</v>
       </c>
       <c r="H32" t="n">
-        <v>20.01709969371813</v>
+        <v>20.01709969371814</v>
       </c>
       <c r="I32" t="n">
-        <v>75.3530317043397</v>
+        <v>75.35303170433971</v>
       </c>
       <c r="J32" t="n">
         <v>165.8905226539447</v>
@@ -33435,10 +33435,10 @@
         <v>348.7563667618077</v>
       </c>
       <c r="O32" t="n">
-        <v>329.3207475669428</v>
+        <v>329.3207475669429</v>
       </c>
       <c r="P32" t="n">
-        <v>281.0676389436139</v>
+        <v>281.067638943614</v>
       </c>
       <c r="Q32" t="n">
         <v>211.0700914976204</v>
@@ -33447,10 +33447,10 @@
         <v>122.7778970961086</v>
       </c>
       <c r="S32" t="n">
-        <v>44.53945165586255</v>
+        <v>44.53945165586256</v>
       </c>
       <c r="T32" t="n">
-        <v>8.556070197412538</v>
+        <v>8.55607019741254</v>
       </c>
       <c r="U32" t="n">
         <v>0.1563645038933187</v>
@@ -33496,7 +33496,7 @@
         <v>10.10003137928133</v>
       </c>
       <c r="I33" t="n">
-        <v>36.00601558917277</v>
+        <v>36.00601558917278</v>
       </c>
       <c r="J33" t="n">
         <v>98.80325882883703</v>
@@ -33514,7 +33514,7 @@
         <v>271.9899004359689</v>
       </c>
       <c r="O33" t="n">
-        <v>248.8176213587076</v>
+        <v>248.8176213587077</v>
       </c>
       <c r="P33" t="n">
         <v>199.6980772893508</v>
@@ -33529,7 +33529,7 @@
         <v>19.42490140384033</v>
       </c>
       <c r="T33" t="n">
-        <v>4.215226538401243</v>
+        <v>4.215226538401244</v>
       </c>
       <c r="U33" t="n">
         <v>0.06880130367357856</v>
@@ -33569,16 +33569,16 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.8767466675780607</v>
+        <v>0.8767466675780609</v>
       </c>
       <c r="H34" t="n">
-        <v>7.795074917194037</v>
+        <v>7.795074917194038</v>
       </c>
       <c r="I34" t="n">
         <v>26.36616342134751</v>
       </c>
       <c r="J34" t="n">
-        <v>61.98598939776889</v>
+        <v>61.9859893977689</v>
       </c>
       <c r="K34" t="n">
         <v>101.8620219240692</v>
@@ -33587,7 +33587,7 @@
         <v>130.3483181961055</v>
       </c>
       <c r="M34" t="n">
-        <v>137.4340253549863</v>
+        <v>137.4340253549864</v>
       </c>
       <c r="N34" t="n">
         <v>134.1661514121955</v>
@@ -33596,22 +33596,22 @@
         <v>123.9241562500336</v>
       </c>
       <c r="P34" t="n">
-        <v>106.038524231441</v>
+        <v>106.0385242314411</v>
       </c>
       <c r="Q34" t="n">
         <v>73.41557777328653</v>
       </c>
       <c r="R34" t="n">
-        <v>39.42171834400988</v>
+        <v>39.42171834400989</v>
       </c>
       <c r="S34" t="n">
         <v>15.27930328861038</v>
       </c>
       <c r="T34" t="n">
-        <v>3.746099397833531</v>
+        <v>3.746099397833532</v>
       </c>
       <c r="U34" t="n">
-        <v>0.04782254550425791</v>
+        <v>0.04782254550425792</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33651,10 +33651,10 @@
         <v>1.954556298666484</v>
       </c>
       <c r="H35" t="n">
-        <v>20.01709969371813</v>
+        <v>20.01709969371814</v>
       </c>
       <c r="I35" t="n">
-        <v>75.3530317043397</v>
+        <v>75.35303170433971</v>
       </c>
       <c r="J35" t="n">
         <v>165.8905226539447</v>
@@ -33672,10 +33672,10 @@
         <v>348.7563667618077</v>
       </c>
       <c r="O35" t="n">
-        <v>329.3207475669428</v>
+        <v>329.3207475669429</v>
       </c>
       <c r="P35" t="n">
-        <v>281.0676389436139</v>
+        <v>281.067638943614</v>
       </c>
       <c r="Q35" t="n">
         <v>211.0700914976204</v>
@@ -33684,10 +33684,10 @@
         <v>122.7778970961086</v>
       </c>
       <c r="S35" t="n">
-        <v>44.53945165586255</v>
+        <v>44.53945165586256</v>
       </c>
       <c r="T35" t="n">
-        <v>8.556070197412538</v>
+        <v>8.55607019741254</v>
       </c>
       <c r="U35" t="n">
         <v>0.1563645038933187</v>
@@ -33733,7 +33733,7 @@
         <v>10.10003137928133</v>
       </c>
       <c r="I36" t="n">
-        <v>36.00601558917277</v>
+        <v>36.00601558917278</v>
       </c>
       <c r="J36" t="n">
         <v>98.80325882883703</v>
@@ -33751,7 +33751,7 @@
         <v>271.9899004359689</v>
       </c>
       <c r="O36" t="n">
-        <v>248.8176213587076</v>
+        <v>248.8176213587077</v>
       </c>
       <c r="P36" t="n">
         <v>199.6980772893508</v>
@@ -33766,7 +33766,7 @@
         <v>19.42490140384033</v>
       </c>
       <c r="T36" t="n">
-        <v>4.215226538401243</v>
+        <v>4.215226538401244</v>
       </c>
       <c r="U36" t="n">
         <v>0.06880130367357856</v>
@@ -33806,16 +33806,16 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.8767466675780607</v>
+        <v>0.8767466675780609</v>
       </c>
       <c r="H37" t="n">
-        <v>7.795074917194037</v>
+        <v>7.795074917194038</v>
       </c>
       <c r="I37" t="n">
         <v>26.36616342134751</v>
       </c>
       <c r="J37" t="n">
-        <v>61.98598939776889</v>
+        <v>61.9859893977689</v>
       </c>
       <c r="K37" t="n">
         <v>101.8620219240692</v>
@@ -33824,7 +33824,7 @@
         <v>130.3483181961055</v>
       </c>
       <c r="M37" t="n">
-        <v>137.4340253549863</v>
+        <v>137.4340253549864</v>
       </c>
       <c r="N37" t="n">
         <v>134.1661514121955</v>
@@ -33833,22 +33833,22 @@
         <v>123.9241562500336</v>
       </c>
       <c r="P37" t="n">
-        <v>106.038524231441</v>
+        <v>106.0385242314411</v>
       </c>
       <c r="Q37" t="n">
         <v>73.41557777328653</v>
       </c>
       <c r="R37" t="n">
-        <v>39.42171834400988</v>
+        <v>39.42171834400989</v>
       </c>
       <c r="S37" t="n">
         <v>15.27930328861038</v>
       </c>
       <c r="T37" t="n">
-        <v>3.746099397833531</v>
+        <v>3.746099397833532</v>
       </c>
       <c r="U37" t="n">
-        <v>0.04782254550425791</v>
+        <v>0.04782254550425792</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33888,10 +33888,10 @@
         <v>1.954556298666484</v>
       </c>
       <c r="H38" t="n">
-        <v>20.01709969371813</v>
+        <v>20.01709969371814</v>
       </c>
       <c r="I38" t="n">
-        <v>75.3530317043397</v>
+        <v>75.35303170433971</v>
       </c>
       <c r="J38" t="n">
         <v>165.8905226539447</v>
@@ -33909,10 +33909,10 @@
         <v>348.7563667618077</v>
       </c>
       <c r="O38" t="n">
-        <v>329.3207475669428</v>
+        <v>329.3207475669429</v>
       </c>
       <c r="P38" t="n">
-        <v>281.0676389436139</v>
+        <v>281.067638943614</v>
       </c>
       <c r="Q38" t="n">
         <v>211.0700914976204</v>
@@ -33921,10 +33921,10 @@
         <v>122.7778970961086</v>
       </c>
       <c r="S38" t="n">
-        <v>44.53945165586255</v>
+        <v>44.53945165586256</v>
       </c>
       <c r="T38" t="n">
-        <v>8.556070197412538</v>
+        <v>8.55607019741254</v>
       </c>
       <c r="U38" t="n">
         <v>0.1563645038933187</v>
@@ -33970,7 +33970,7 @@
         <v>10.10003137928133</v>
       </c>
       <c r="I39" t="n">
-        <v>36.00601558917277</v>
+        <v>36.00601558917278</v>
       </c>
       <c r="J39" t="n">
         <v>98.80325882883703</v>
@@ -33988,7 +33988,7 @@
         <v>271.9899004359689</v>
       </c>
       <c r="O39" t="n">
-        <v>248.8176213587076</v>
+        <v>248.8176213587077</v>
       </c>
       <c r="P39" t="n">
         <v>199.6980772893508</v>
@@ -34003,7 +34003,7 @@
         <v>19.42490140384033</v>
       </c>
       <c r="T39" t="n">
-        <v>4.215226538401243</v>
+        <v>4.215226538401244</v>
       </c>
       <c r="U39" t="n">
         <v>0.06880130367357856</v>
@@ -34043,16 +34043,16 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.8767466675780607</v>
+        <v>0.8767466675780609</v>
       </c>
       <c r="H40" t="n">
-        <v>7.795074917194037</v>
+        <v>7.795074917194038</v>
       </c>
       <c r="I40" t="n">
         <v>26.36616342134751</v>
       </c>
       <c r="J40" t="n">
-        <v>61.98598939776889</v>
+        <v>61.9859893977689</v>
       </c>
       <c r="K40" t="n">
         <v>101.8620219240692</v>
@@ -34061,7 +34061,7 @@
         <v>130.3483181961055</v>
       </c>
       <c r="M40" t="n">
-        <v>137.4340253549863</v>
+        <v>137.4340253549864</v>
       </c>
       <c r="N40" t="n">
         <v>134.1661514121955</v>
@@ -34070,22 +34070,22 @@
         <v>123.9241562500336</v>
       </c>
       <c r="P40" t="n">
-        <v>106.038524231441</v>
+        <v>106.0385242314411</v>
       </c>
       <c r="Q40" t="n">
         <v>73.41557777328653</v>
       </c>
       <c r="R40" t="n">
-        <v>39.42171834400988</v>
+        <v>39.42171834400989</v>
       </c>
       <c r="S40" t="n">
         <v>15.27930328861038</v>
       </c>
       <c r="T40" t="n">
-        <v>3.746099397833531</v>
+        <v>3.746099397833532</v>
       </c>
       <c r="U40" t="n">
-        <v>0.04782254550425791</v>
+        <v>0.04782254550425792</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34155,7 +34155,7 @@
         <v>211.0700914976204</v>
       </c>
       <c r="R41" t="n">
-        <v>122.7778970961086</v>
+        <v>122.7778970961091</v>
       </c>
       <c r="S41" t="n">
         <v>44.53945165586256</v>
@@ -35409,19 +35409,19 @@
         <v>40.80512916037621</v>
       </c>
       <c r="J11" t="n">
-        <v>136.4705631683581</v>
+        <v>136.4705631683582</v>
       </c>
       <c r="K11" t="n">
-        <v>212.8622899816876</v>
+        <v>212.8622899816877</v>
       </c>
       <c r="L11" t="n">
-        <v>270.1316006691885</v>
+        <v>270.1316006691886</v>
       </c>
       <c r="M11" t="n">
-        <v>305.7717207787897</v>
+        <v>305.7717207787898</v>
       </c>
       <c r="N11" t="n">
-        <v>311.4767439273617</v>
+        <v>311.4767439273618</v>
       </c>
       <c r="O11" t="n">
         <v>291.9297882109188</v>
@@ -35433,7 +35433,7 @@
         <v>174.9454168930224</v>
       </c>
       <c r="R11" t="n">
-        <v>87.74524720131217</v>
+        <v>87.7452472013122</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,16 +35485,16 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>19.83362883917277</v>
+        <v>43.5278771668615</v>
       </c>
       <c r="J12" t="n">
-        <v>372.4349033219826</v>
+        <v>348.7406549942936</v>
       </c>
       <c r="K12" t="n">
         <v>146.4712726566761</v>
       </c>
       <c r="L12" t="n">
-        <v>204.5521491764708</v>
+        <v>204.5521491764709</v>
       </c>
       <c r="M12" t="n">
         <v>241.8799737025141</v>
@@ -35503,7 +35503,7 @@
         <v>250.6468722224273</v>
       </c>
       <c r="O12" t="n">
-        <v>225.6457316364854</v>
+        <v>225.6457316364855</v>
       </c>
       <c r="P12" t="n">
         <v>177.9272360845222</v>
@@ -35512,7 +35512,7 @@
         <v>110.7458378520768</v>
       </c>
       <c r="R12" t="n">
-        <v>41.25716425940107</v>
+        <v>41.25716425940108</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>41.34923341386703</v>
+        <v>41.34923341386704</v>
       </c>
       <c r="K13" t="n">
-        <v>80.89736747135723</v>
+        <v>330.6777807178441</v>
       </c>
       <c r="L13" t="n">
-        <v>488.6203599076417</v>
+        <v>108.4295583004044</v>
       </c>
       <c r="M13" t="n">
-        <v>399.4990429904748</v>
+        <v>114.8585854635006</v>
       </c>
       <c r="N13" t="n">
         <v>515.4707078526358</v>
       </c>
       <c r="O13" t="n">
-        <v>101.4249687516091</v>
+        <v>482.9424680477741</v>
       </c>
       <c r="P13" t="n">
-        <v>399.5730817283107</v>
+        <v>280.2039057159324</v>
       </c>
       <c r="Q13" t="n">
-        <v>48.79601500850158</v>
+        <v>201.69853761244</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35643,7 +35643,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>40.80512916037621</v>
+        <v>40.80512916037623</v>
       </c>
       <c r="J14" t="n">
         <v>136.4705631683582</v>
@@ -35667,7 +35667,7 @@
         <v>243.4922771333827</v>
       </c>
       <c r="Q14" t="n">
-        <v>174.9454168930224</v>
+        <v>174.9454168930225</v>
       </c>
       <c r="R14" t="n">
         <v>87.7452472013122</v>
@@ -35722,19 +35722,19 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>43.5278771668615</v>
+        <v>43.52787716686151</v>
       </c>
       <c r="J15" t="n">
-        <v>78.19214449550371</v>
+        <v>242.2199476358028</v>
       </c>
       <c r="K15" t="n">
-        <v>310.4990757969755</v>
+        <v>146.4712726566761</v>
       </c>
       <c r="L15" t="n">
         <v>204.5521491764709</v>
       </c>
       <c r="M15" t="n">
-        <v>241.8799737025141</v>
+        <v>241.8799737025142</v>
       </c>
       <c r="N15" t="n">
         <v>250.6468722224273</v>
@@ -35746,7 +35746,7 @@
         <v>177.9272360845222</v>
       </c>
       <c r="Q15" t="n">
-        <v>110.7458378520768</v>
+        <v>110.7458378520769</v>
       </c>
       <c r="R15" t="n">
         <v>147.7778716178918</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>120.0580381090396</v>
+        <v>41.34923341386704</v>
       </c>
       <c r="K16" t="n">
-        <v>330.6777807178441</v>
+        <v>330.6777807178442</v>
       </c>
       <c r="L16" t="n">
         <v>108.4295583004044</v>
       </c>
       <c r="M16" t="n">
-        <v>524.2026707533556</v>
+        <v>464.3072902099167</v>
       </c>
       <c r="N16" t="n">
-        <v>113.4172504365952</v>
+        <v>515.4707078526358</v>
       </c>
       <c r="O16" t="n">
-        <v>277.5738594664083</v>
+        <v>482.9424680477741</v>
       </c>
       <c r="P16" t="n">
-        <v>399.5730817283107</v>
+        <v>83.6577235734546</v>
       </c>
       <c r="Q16" t="n">
-        <v>201.69853761244</v>
+        <v>48.79601500850161</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35880,7 +35880,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>40.80512916037621</v>
+        <v>40.80512916037623</v>
       </c>
       <c r="J17" t="n">
         <v>136.4705631683582</v>
@@ -35904,7 +35904,7 @@
         <v>243.4922771333827</v>
       </c>
       <c r="Q17" t="n">
-        <v>174.9454168930224</v>
+        <v>174.9454168930225</v>
       </c>
       <c r="R17" t="n">
         <v>87.7452472013122</v>
@@ -35959,10 +35959,10 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>43.5278771668615</v>
+        <v>19.83362883917278</v>
       </c>
       <c r="J18" t="n">
-        <v>78.19214449550371</v>
+        <v>78.19214449550373</v>
       </c>
       <c r="K18" t="n">
         <v>146.4712726566761</v>
@@ -35971,7 +35971,7 @@
         <v>204.5521491764709</v>
       </c>
       <c r="M18" t="n">
-        <v>241.8799737025141</v>
+        <v>241.8799737025142</v>
       </c>
       <c r="N18" t="n">
         <v>250.6468722224273</v>
@@ -35983,10 +35983,10 @@
         <v>177.9272360845222</v>
       </c>
       <c r="Q18" t="n">
-        <v>274.7736409923763</v>
+        <v>404.9885966785551</v>
       </c>
       <c r="R18" t="n">
-        <v>147.7778716178918</v>
+        <v>41.25716425940108</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>120.0580381090396</v>
+        <v>41.34923341386704</v>
       </c>
       <c r="K19" t="n">
-        <v>330.6777807178441</v>
+        <v>330.6777807178442</v>
       </c>
       <c r="L19" t="n">
-        <v>108.4295583004044</v>
+        <v>488.6203599076417</v>
       </c>
       <c r="M19" t="n">
-        <v>318.8340621719905</v>
+        <v>465.6339878988451</v>
       </c>
       <c r="N19" t="n">
-        <v>113.4172504365952</v>
+        <v>515.4707078526358</v>
       </c>
       <c r="O19" t="n">
-        <v>482.9424680477741</v>
+        <v>101.4249687516092</v>
       </c>
       <c r="P19" t="n">
-        <v>399.5730817283107</v>
+        <v>83.6577235734546</v>
       </c>
       <c r="Q19" t="n">
-        <v>201.69853761244</v>
+        <v>48.79601500850161</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36117,7 +36117,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>40.80512916037621</v>
+        <v>40.80512916037623</v>
       </c>
       <c r="J20" t="n">
         <v>136.4705631683582</v>
@@ -36141,7 +36141,7 @@
         <v>243.4922771333827</v>
       </c>
       <c r="Q20" t="n">
-        <v>174.9454168930224</v>
+        <v>174.9454168930225</v>
       </c>
       <c r="R20" t="n">
         <v>87.7452472013122</v>
@@ -36196,34 +36196,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>43.5278771668615</v>
+        <v>19.83362883917278</v>
       </c>
       <c r="J21" t="n">
-        <v>78.19214449550371</v>
+        <v>78.19214449550373</v>
       </c>
       <c r="K21" t="n">
-        <v>146.4712726566761</v>
+        <v>440.7140314831544</v>
       </c>
       <c r="L21" t="n">
         <v>204.5521491764709</v>
       </c>
       <c r="M21" t="n">
-        <v>241.8799737025141</v>
+        <v>241.8799737025142</v>
       </c>
       <c r="N21" t="n">
         <v>250.6468722224273</v>
       </c>
       <c r="O21" t="n">
-        <v>389.6735347767849</v>
+        <v>225.6457316364855</v>
       </c>
       <c r="P21" t="n">
         <v>177.9272360845222</v>
       </c>
       <c r="Q21" t="n">
-        <v>110.7458378520768</v>
+        <v>110.7458378520769</v>
       </c>
       <c r="R21" t="n">
-        <v>147.7778716178918</v>
+        <v>41.25716425940108</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36281,25 +36281,25 @@
         <v>120.0580381090396</v>
       </c>
       <c r="K22" t="n">
-        <v>80.89736747135724</v>
+        <v>330.6777807178442</v>
       </c>
       <c r="L22" t="n">
-        <v>108.4295583004044</v>
+        <v>198.4403497540196</v>
       </c>
       <c r="M22" t="n">
-        <v>524.2026707533556</v>
+        <v>524.2026707533557</v>
       </c>
       <c r="N22" t="n">
         <v>515.4707078526358</v>
       </c>
       <c r="O22" t="n">
-        <v>482.9424680477741</v>
+        <v>101.4249687516092</v>
       </c>
       <c r="P22" t="n">
-        <v>83.65772357345459</v>
+        <v>83.6577235734546</v>
       </c>
       <c r="Q22" t="n">
-        <v>159.9722430163769</v>
+        <v>201.69853761244</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36357,19 +36357,19 @@
         <v>40.80512916037621</v>
       </c>
       <c r="J23" t="n">
-        <v>136.4705631683581</v>
+        <v>136.4705631683582</v>
       </c>
       <c r="K23" t="n">
-        <v>212.8622899816876</v>
+        <v>212.8622899816877</v>
       </c>
       <c r="L23" t="n">
-        <v>270.1316006691885</v>
+        <v>270.1316006691886</v>
       </c>
       <c r="M23" t="n">
-        <v>305.7717207787897</v>
+        <v>305.7717207787898</v>
       </c>
       <c r="N23" t="n">
-        <v>311.4767439273617</v>
+        <v>311.4767439273618</v>
       </c>
       <c r="O23" t="n">
         <v>291.9297882109188</v>
@@ -36381,7 +36381,7 @@
         <v>174.9454168930224</v>
       </c>
       <c r="R23" t="n">
-        <v>87.74524720131217</v>
+        <v>87.7452472013122</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,16 +36433,16 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>19.83362883917277</v>
+        <v>43.5278771668615</v>
       </c>
       <c r="J24" t="n">
-        <v>265.9141959634919</v>
+        <v>242.2199476358031</v>
       </c>
       <c r="K24" t="n">
         <v>146.4712726566761</v>
       </c>
       <c r="L24" t="n">
-        <v>204.5521491764708</v>
+        <v>204.5521491764709</v>
       </c>
       <c r="M24" t="n">
         <v>241.8799737025141</v>
@@ -36451,7 +36451,7 @@
         <v>250.6468722224273</v>
       </c>
       <c r="O24" t="n">
-        <v>225.6457316364854</v>
+        <v>225.6457316364855</v>
       </c>
       <c r="P24" t="n">
         <v>177.9272360845222</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>41.34923341386703</v>
+        <v>120.0580381090396</v>
       </c>
       <c r="K25" t="n">
-        <v>80.89736747135723</v>
+        <v>80.89736747135724</v>
       </c>
       <c r="L25" t="n">
-        <v>488.6203599076417</v>
+        <v>108.4295583004044</v>
       </c>
       <c r="M25" t="n">
-        <v>114.8585854635006</v>
+        <v>524.2026707533557</v>
       </c>
       <c r="N25" t="n">
         <v>515.4707078526358</v>
       </c>
       <c r="O25" t="n">
-        <v>482.9424680477741</v>
+        <v>125.3008152968549</v>
       </c>
       <c r="P25" t="n">
-        <v>302.6960399591201</v>
+        <v>399.5730817283107</v>
       </c>
       <c r="Q25" t="n">
-        <v>48.79601500850158</v>
+        <v>201.69853761244</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36591,7 +36591,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>40.8051291603762</v>
+        <v>40.80512916037621</v>
       </c>
       <c r="J26" t="n">
         <v>136.4705631683581</v>
@@ -36609,10 +36609,10 @@
         <v>311.4767439273617</v>
       </c>
       <c r="O26" t="n">
-        <v>291.9297882109187</v>
+        <v>291.9297882109188</v>
       </c>
       <c r="P26" t="n">
-        <v>243.4922771333826</v>
+        <v>243.4922771333827</v>
       </c>
       <c r="Q26" t="n">
         <v>174.9454168930224</v>
@@ -36673,7 +36673,7 @@
         <v>43.5278771668615</v>
       </c>
       <c r="J27" t="n">
-        <v>78.1921444955037</v>
+        <v>242.2199476358032</v>
       </c>
       <c r="K27" t="n">
         <v>146.4712726566761</v>
@@ -36685,7 +36685,7 @@
         <v>241.8799737025141</v>
       </c>
       <c r="N27" t="n">
-        <v>250.6468722224272</v>
+        <v>250.6468722224273</v>
       </c>
       <c r="O27" t="n">
         <v>225.6457316364854</v>
@@ -36694,7 +36694,7 @@
         <v>177.9272360845222</v>
       </c>
       <c r="Q27" t="n">
-        <v>274.7736409923766</v>
+        <v>110.7458378520768</v>
       </c>
       <c r="R27" t="n">
         <v>147.7778716178918</v>
@@ -36755,25 +36755,25 @@
         <v>41.34923341386703</v>
       </c>
       <c r="K28" t="n">
-        <v>330.6777807178441</v>
+        <v>80.89736747135723</v>
       </c>
       <c r="L28" t="n">
-        <v>488.6203599076416</v>
+        <v>488.6203599076417</v>
       </c>
       <c r="M28" t="n">
-        <v>114.8585854635005</v>
+        <v>333.8969018491661</v>
       </c>
       <c r="N28" t="n">
-        <v>113.4172504365951</v>
+        <v>515.4707078526358</v>
       </c>
       <c r="O28" t="n">
-        <v>385.4359478441992</v>
+        <v>482.9424680477741</v>
       </c>
       <c r="P28" t="n">
-        <v>399.5730817283107</v>
+        <v>83.65772357345458</v>
       </c>
       <c r="Q28" t="n">
-        <v>201.69853761244</v>
+        <v>48.79601500850158</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36828,7 +36828,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>40.8051291603762</v>
+        <v>40.80512916037621</v>
       </c>
       <c r="J29" t="n">
         <v>136.4705631683581</v>
@@ -36846,10 +36846,10 @@
         <v>311.4767439273617</v>
       </c>
       <c r="O29" t="n">
-        <v>291.9297882109187</v>
+        <v>291.9297882109188</v>
       </c>
       <c r="P29" t="n">
-        <v>243.4922771333826</v>
+        <v>243.4922771333827</v>
       </c>
       <c r="Q29" t="n">
         <v>174.9454168930224</v>
@@ -36910,7 +36910,7 @@
         <v>19.83362883917277</v>
       </c>
       <c r="J30" t="n">
-        <v>265.914195963492</v>
+        <v>372.4349033219826</v>
       </c>
       <c r="K30" t="n">
         <v>146.4712726566761</v>
@@ -36922,7 +36922,7 @@
         <v>241.8799737025141</v>
       </c>
       <c r="N30" t="n">
-        <v>250.6468722224272</v>
+        <v>250.6468722224273</v>
       </c>
       <c r="O30" t="n">
         <v>225.6457316364854</v>
@@ -36934,7 +36934,7 @@
         <v>110.7458378520768</v>
       </c>
       <c r="R30" t="n">
-        <v>147.7778716178918</v>
+        <v>41.25716425940107</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,13 +36989,13 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>120.0580381090396</v>
+        <v>41.34923341386703</v>
       </c>
       <c r="K31" t="n">
-        <v>330.6777807178441</v>
+        <v>80.89736747135723</v>
       </c>
       <c r="L31" t="n">
-        <v>108.4295583004043</v>
+        <v>298.3145910034525</v>
       </c>
       <c r="M31" t="n">
         <v>524.2026707533557</v>
@@ -37004,13 +37004,13 @@
         <v>515.4707078526358</v>
       </c>
       <c r="O31" t="n">
-        <v>101.4249687516091</v>
+        <v>482.9424680477741</v>
       </c>
       <c r="P31" t="n">
-        <v>173.6685150270698</v>
+        <v>83.65772357345458</v>
       </c>
       <c r="Q31" t="n">
-        <v>201.69853761244</v>
+        <v>48.79601500850158</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37065,7 +37065,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>40.8051291603762</v>
+        <v>40.80512916037621</v>
       </c>
       <c r="J32" t="n">
         <v>136.4705631683581</v>
@@ -37083,10 +37083,10 @@
         <v>311.4767439273617</v>
       </c>
       <c r="O32" t="n">
-        <v>291.9297882109187</v>
+        <v>291.9297882109188</v>
       </c>
       <c r="P32" t="n">
-        <v>243.4922771333826</v>
+        <v>243.4922771333827</v>
       </c>
       <c r="Q32" t="n">
         <v>174.9454168930224</v>
@@ -37144,10 +37144,10 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>19.83362883917277</v>
+        <v>43.5278771668615</v>
       </c>
       <c r="J33" t="n">
-        <v>265.914195963492</v>
+        <v>242.2199476358032</v>
       </c>
       <c r="K33" t="n">
         <v>146.4712726566761</v>
@@ -37159,7 +37159,7 @@
         <v>241.8799737025141</v>
       </c>
       <c r="N33" t="n">
-        <v>250.6468722224272</v>
+        <v>250.6468722224273</v>
       </c>
       <c r="O33" t="n">
         <v>225.6457316364854</v>
@@ -37226,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>120.0580381090396</v>
+        <v>41.34923341386703</v>
       </c>
       <c r="K34" t="n">
-        <v>330.6777807178441</v>
+        <v>80.89736747135723</v>
       </c>
       <c r="L34" t="n">
-        <v>108.4295583004043</v>
+        <v>488.6203599076417</v>
       </c>
       <c r="M34" t="n">
-        <v>114.8585854635005</v>
+        <v>524.2026707533557</v>
       </c>
       <c r="N34" t="n">
         <v>515.4707078526358</v>
       </c>
       <c r="O34" t="n">
-        <v>482.942468047774</v>
+        <v>292.6366991435848</v>
       </c>
       <c r="P34" t="n">
-        <v>201.4951010207601</v>
+        <v>83.65772357345458</v>
       </c>
       <c r="Q34" t="n">
-        <v>201.69853761244</v>
+        <v>48.79601500850158</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37302,7 +37302,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>40.8051291603762</v>
+        <v>40.80512916037621</v>
       </c>
       <c r="J35" t="n">
         <v>136.4705631683581</v>
@@ -37320,10 +37320,10 @@
         <v>311.4767439273617</v>
       </c>
       <c r="O35" t="n">
-        <v>291.9297882109187</v>
+        <v>291.9297882109188</v>
       </c>
       <c r="P35" t="n">
-        <v>243.4922771333826</v>
+        <v>243.4922771333827</v>
       </c>
       <c r="Q35" t="n">
         <v>174.9454168930224</v>
@@ -37381,10 +37381,10 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>19.83362883917277</v>
+        <v>43.5278771668615</v>
       </c>
       <c r="J36" t="n">
-        <v>265.914195963492</v>
+        <v>78.1921444955037</v>
       </c>
       <c r="K36" t="n">
         <v>146.4712726566761</v>
@@ -37396,7 +37396,7 @@
         <v>241.8799737025141</v>
       </c>
       <c r="N36" t="n">
-        <v>250.6468722224272</v>
+        <v>250.6468722224273</v>
       </c>
       <c r="O36" t="n">
         <v>225.6457316364854</v>
@@ -37405,7 +37405,7 @@
         <v>177.9272360845222</v>
       </c>
       <c r="Q36" t="n">
-        <v>110.7458378520768</v>
+        <v>274.7736409923766</v>
       </c>
       <c r="R36" t="n">
         <v>147.7778716178918</v>
@@ -37463,16 +37463,16 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>120.0580381090396</v>
+        <v>41.34923341386703</v>
       </c>
       <c r="K37" t="n">
         <v>330.6777807178441</v>
       </c>
       <c r="L37" t="n">
-        <v>284.578449015204</v>
+        <v>488.6203599076417</v>
       </c>
       <c r="M37" t="n">
-        <v>524.2026707533557</v>
+        <v>398.8695645560906</v>
       </c>
       <c r="N37" t="n">
         <v>113.4172504365951</v>
@@ -37539,7 +37539,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>40.8051291603762</v>
+        <v>40.80512916037621</v>
       </c>
       <c r="J38" t="n">
         <v>136.4705631683581</v>
@@ -37557,10 +37557,10 @@
         <v>311.4767439273617</v>
       </c>
       <c r="O38" t="n">
-        <v>291.9297882109187</v>
+        <v>291.9297882109188</v>
       </c>
       <c r="P38" t="n">
-        <v>243.4922771333826</v>
+        <v>243.4922771333827</v>
       </c>
       <c r="Q38" t="n">
         <v>174.9454168930224</v>
@@ -37618,10 +37618,10 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>19.83362883917277</v>
+        <v>43.5278771668615</v>
       </c>
       <c r="J39" t="n">
-        <v>265.914195963492</v>
+        <v>78.1921444955037</v>
       </c>
       <c r="K39" t="n">
         <v>146.4712726566761</v>
@@ -37633,7 +37633,7 @@
         <v>241.8799737025141</v>
       </c>
       <c r="N39" t="n">
-        <v>250.6468722224272</v>
+        <v>250.6468722224273</v>
       </c>
       <c r="O39" t="n">
         <v>225.6457316364854</v>
@@ -37642,7 +37642,7 @@
         <v>177.9272360845222</v>
       </c>
       <c r="Q39" t="n">
-        <v>110.7458378520768</v>
+        <v>274.7736409923766</v>
       </c>
       <c r="R39" t="n">
         <v>147.7778716178918</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>41.34923341386703</v>
+        <v>120.0580381090396</v>
       </c>
       <c r="K40" t="n">
         <v>330.6777807178441</v>
       </c>
       <c r="L40" t="n">
-        <v>370.5778815841912</v>
+        <v>488.6203599076417</v>
       </c>
       <c r="M40" t="n">
-        <v>114.8585854635005</v>
+        <v>524.2026707533555</v>
       </c>
       <c r="N40" t="n">
-        <v>515.4707078526358</v>
+        <v>113.4172504365951</v>
       </c>
       <c r="O40" t="n">
-        <v>101.4249687516091</v>
+        <v>366.2009386179653</v>
       </c>
       <c r="P40" t="n">
-        <v>399.5730817283107</v>
+        <v>83.65772357345458</v>
       </c>
       <c r="Q40" t="n">
-        <v>201.69853761244</v>
+        <v>48.79601500850158</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37803,7 +37803,7 @@
         <v>174.9454168930224</v>
       </c>
       <c r="R41" t="n">
-        <v>87.74524720131217</v>
+        <v>87.74524720131261</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>120.0580381090396</v>
+        <v>41.34923341386703</v>
       </c>
       <c r="K43" t="n">
-        <v>330.6777807178441</v>
+        <v>80.89736747135723</v>
       </c>
       <c r="L43" t="n">
-        <v>108.4295583004043</v>
+        <v>298.3145910034525</v>
       </c>
       <c r="M43" t="n">
-        <v>524.2026707533556</v>
+        <v>524.2026707533557</v>
       </c>
       <c r="N43" t="n">
-        <v>113.4172504365951</v>
+        <v>515.4707078526358</v>
       </c>
       <c r="O43" t="n">
-        <v>277.5738594664083</v>
+        <v>482.9424680477741</v>
       </c>
       <c r="P43" t="n">
-        <v>399.5730817283107</v>
+        <v>83.65772357345458</v>
       </c>
       <c r="Q43" t="n">
-        <v>201.69853761244</v>
+        <v>48.79601500850158</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38095,7 +38095,7 @@
         <v>19.83362883917277</v>
       </c>
       <c r="J45" t="n">
-        <v>372.4349033219826</v>
+        <v>78.1921444955037</v>
       </c>
       <c r="K45" t="n">
         <v>146.4712726566761</v>
@@ -38116,7 +38116,7 @@
         <v>177.9272360845222</v>
       </c>
       <c r="Q45" t="n">
-        <v>110.7458378520768</v>
+        <v>404.988596678556</v>
       </c>
       <c r="R45" t="n">
         <v>41.25716425940107</v>
@@ -38177,25 +38177,25 @@
         <v>41.34923341386703</v>
       </c>
       <c r="K46" t="n">
-        <v>330.6777807178441</v>
+        <v>80.89736747135723</v>
       </c>
       <c r="L46" t="n">
-        <v>488.6203599076417</v>
+        <v>298.3145910034525</v>
       </c>
       <c r="M46" t="n">
-        <v>114.8585854635006</v>
+        <v>524.2026707533557</v>
       </c>
       <c r="N46" t="n">
-        <v>113.4172504365951</v>
+        <v>515.4707078526358</v>
       </c>
       <c r="O46" t="n">
         <v>482.9424680477741</v>
       </c>
       <c r="P46" t="n">
-        <v>399.5730817283107</v>
+        <v>83.65772357345458</v>
       </c>
       <c r="Q46" t="n">
-        <v>104.1920174088644</v>
+        <v>48.79601500850158</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
